--- a/pop_count/data/JOR_ZAA_populationCount.xlsx
+++ b/pop_count/data/JOR_ZAA_populationCount.xlsx
@@ -697,12 +697,6 @@
     <t>male [12_18[</t>
   </si>
   <si>
-    <t>male [18_39[</t>
-  </si>
-  <si>
-    <t>male [39_60[</t>
-  </si>
-  <si>
     <t>male [5_12[</t>
   </si>
   <si>
@@ -749,6 +743,12 @@
   </si>
   <si>
     <t>gender_head_of_HH</t>
+  </si>
+  <si>
+    <t>male [18_40[</t>
+  </si>
+  <si>
+    <t>male [40_60[</t>
   </si>
 </sst>
 </file>
@@ -918,23 +918,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,82 +1299,82 @@
     <row r="1" spans="1:35" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AI1" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="10" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1383,19 +1383,19 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1437,40 +1437,40 @@
       <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AI2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -3369,7 +3369,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
@@ -4211,7 +4211,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
@@ -4526,7 +4526,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="AI32" s="6"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
@@ -4839,7 +4839,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
@@ -4944,7 +4944,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
@@ -5261,7 +5261,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
@@ -5366,7 +5366,7 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="AI40" s="6"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
@@ -5679,7 +5679,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
@@ -5784,7 +5784,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
@@ -5889,7 +5889,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2" t="s">
         <v>64</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
@@ -6099,7 +6099,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="2" t="s">
         <v>66</v>
       </c>
@@ -6204,7 +6204,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="2" t="s">
         <v>67</v>
       </c>
@@ -6309,7 +6309,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="2" t="s">
         <v>68</v>
       </c>
@@ -6414,7 +6414,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6521,7 +6521,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="2" t="s">
         <v>71</v>
       </c>
@@ -6626,7 +6626,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="2" t="s">
         <v>72</v>
       </c>
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="2" t="s">
         <v>73</v>
       </c>
@@ -6836,7 +6836,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="2" t="s">
         <v>75</v>
       </c>
@@ -7046,7 +7046,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="2" t="s">
         <v>76</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
@@ -7256,7 +7256,7 @@
       </c>
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="2" t="s">
         <v>78</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="2" t="s">
         <v>79</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="2" t="s">
         <v>80</v>
       </c>
@@ -7571,7 +7571,7 @@
       </c>
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="2" t="s">
         <v>81</v>
       </c>
@@ -7676,7 +7676,7 @@
       </c>
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="2" t="s">
         <v>82</v>
       </c>
@@ -7781,7 +7781,7 @@
       </c>
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="2" t="s">
         <v>83</v>
       </c>
@@ -7886,7 +7886,7 @@
       </c>
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="AI68" s="6"/>
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -8514,7 +8514,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
@@ -8619,7 +8619,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="AI71" s="6"/>
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -8827,7 +8827,7 @@
       </c>
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
@@ -8928,7 +8928,7 @@
       <c r="AI73" s="6"/>
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="2" t="s">
         <v>95</v>
       </c>
@@ -9033,7 +9033,7 @@
       </c>
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="2" t="s">
         <v>96</v>
       </c>
@@ -9138,7 +9138,7 @@
       </c>
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="2" t="s">
         <v>97</v>
       </c>
@@ -9243,7 +9243,7 @@
       </c>
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="2" t="s">
         <v>98</v>
       </c>
@@ -9348,7 +9348,7 @@
       </c>
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="2" t="s">
         <v>99</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="2" t="s">
         <v>100</v>
       </c>
@@ -9558,7 +9558,7 @@
       </c>
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="2" t="s">
         <v>101</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="2" t="s">
         <v>102</v>
       </c>
@@ -9768,7 +9768,7 @@
       </c>
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="2" t="s">
         <v>103</v>
       </c>
@@ -9873,7 +9873,7 @@
       </c>
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="2" t="s">
         <v>104</v>
       </c>
@@ -9978,7 +9978,7 @@
       </c>
     </row>
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="2" t="s">
         <v>105</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
     </row>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="2" t="s">
         <v>106</v>
       </c>
@@ -10188,7 +10188,7 @@
       </c>
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="2" t="s">
         <v>107</v>
       </c>
@@ -10293,7 +10293,7 @@
       </c>
     </row>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="2" t="s">
         <v>108</v>
       </c>
@@ -10398,7 +10398,7 @@
       </c>
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="2" t="s">
         <v>109</v>
       </c>
@@ -10503,7 +10503,7 @@
       </c>
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="2" t="s">
         <v>110</v>
       </c>
@@ -10608,7 +10608,7 @@
       </c>
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -10715,7 +10715,7 @@
       </c>
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="2" t="s">
         <v>113</v>
       </c>
@@ -10820,7 +10820,7 @@
       </c>
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="2" t="s">
         <v>114</v>
       </c>
@@ -10925,7 +10925,7 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="2" t="s">
         <v>115</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="2" t="s">
         <v>116</v>
       </c>
@@ -11135,7 +11135,7 @@
       </c>
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="2" t="s">
         <v>117</v>
       </c>
@@ -11240,7 +11240,7 @@
       </c>
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="2" t="s">
         <v>118</v>
       </c>
@@ -11345,7 +11345,7 @@
       </c>
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="2" t="s">
         <v>119</v>
       </c>
@@ -11450,7 +11450,7 @@
       </c>
     </row>
     <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="2" t="s">
         <v>120</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="2" t="s">
         <v>121</v>
       </c>
@@ -11660,7 +11660,7 @@
       </c>
     </row>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="2" t="s">
         <v>122</v>
       </c>
@@ -11765,7 +11765,7 @@
       </c>
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="2" t="s">
         <v>123</v>
       </c>
@@ -11870,7 +11870,7 @@
       </c>
     </row>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="2" t="s">
         <v>124</v>
       </c>
@@ -11975,7 +11975,7 @@
       </c>
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="2" t="s">
         <v>125</v>
       </c>
@@ -12080,7 +12080,7 @@
       </c>
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="2" t="s">
         <v>126</v>
       </c>
@@ -12185,7 +12185,7 @@
       </c>
     </row>
     <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="2" t="s">
         <v>127</v>
       </c>
@@ -12290,7 +12290,7 @@
       </c>
     </row>
     <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="2" t="s">
         <v>128</v>
       </c>
@@ -12395,7 +12395,7 @@
       </c>
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="2" t="s">
         <v>129</v>
       </c>
@@ -12500,7 +12500,7 @@
       </c>
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="2" t="s">
         <v>130</v>
       </c>
@@ -12605,7 +12605,7 @@
       </c>
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="2" t="s">
         <v>131</v>
       </c>
@@ -12710,7 +12710,7 @@
       </c>
     </row>
     <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="2" t="s">
         <v>132</v>
       </c>
@@ -12815,7 +12815,7 @@
       </c>
     </row>
     <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="2" t="s">
         <v>133</v>
       </c>
@@ -12918,7 +12918,7 @@
       <c r="AI111" s="6"/>
     </row>
     <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="2" t="s">
         <v>134</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="2" t="s">
         <v>135</v>
       </c>
@@ -13128,7 +13128,7 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -13235,7 +13235,7 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="2" t="s">
         <v>138</v>
       </c>
@@ -13340,7 +13340,7 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="2" t="s">
         <v>139</v>
       </c>
@@ -13445,7 +13445,7 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="2" t="s">
         <v>140</v>
       </c>
@@ -13550,7 +13550,7 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="2" t="s">
         <v>141</v>
       </c>
@@ -13655,7 +13655,7 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="2" t="s">
         <v>142</v>
       </c>
@@ -13760,7 +13760,7 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="2" t="s">
         <v>143</v>
       </c>
@@ -13865,7 +13865,7 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="2" t="s">
         <v>144</v>
       </c>
@@ -13970,7 +13970,7 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="2" t="s">
         <v>145</v>
       </c>
@@ -14075,7 +14075,7 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="2" t="s">
         <v>146</v>
       </c>
@@ -14180,7 +14180,7 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="2" t="s">
         <v>147</v>
       </c>
@@ -14285,7 +14285,7 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="2" t="s">
         <v>148</v>
       </c>
@@ -14390,7 +14390,7 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="2" t="s">
         <v>149</v>
       </c>
@@ -14493,7 +14493,7 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="2" t="s">
         <v>150</v>
       </c>
@@ -14598,7 +14598,7 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="2" t="s">
         <v>151</v>
       </c>
@@ -14703,7 +14703,7 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="2" t="s">
         <v>152</v>
       </c>
@@ -14808,7 +14808,7 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="2" t="s">
         <v>153</v>
       </c>
@@ -14913,7 +14913,7 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="2" t="s">
         <v>154</v>
       </c>
@@ -15018,7 +15018,7 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="2" t="s">
         <v>155</v>
       </c>
@@ -15123,7 +15123,7 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="2" t="s">
         <v>156</v>
       </c>
@@ -15228,7 +15228,7 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="2" t="s">
         <v>157</v>
       </c>
@@ -15333,7 +15333,7 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="2" t="s">
         <v>158</v>
       </c>
@@ -15438,7 +15438,7 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="2" t="s">
         <v>159</v>
       </c>
@@ -15543,7 +15543,7 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="2" t="s">
         <v>160</v>
       </c>
@@ -15648,7 +15648,7 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -15755,7 +15755,7 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="2" t="s">
         <v>163</v>
       </c>
@@ -15860,7 +15860,7 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="2" t="s">
         <v>164</v>
       </c>
@@ -15965,7 +15965,7 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="12"/>
       <c r="B141" s="2" t="s">
         <v>165</v>
       </c>
@@ -16070,7 +16070,7 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="2" t="s">
         <v>166</v>
       </c>
@@ -16175,7 +16175,7 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="2" t="s">
         <v>167</v>
       </c>
@@ -16280,7 +16280,7 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
+      <c r="A144" s="12"/>
       <c r="B144" s="2" t="s">
         <v>168</v>
       </c>
@@ -16385,7 +16385,7 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="2" t="s">
         <v>169</v>
       </c>
@@ -16490,7 +16490,7 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="2" t="s">
         <v>170</v>
       </c>
@@ -16595,7 +16595,7 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="2" t="s">
         <v>171</v>
       </c>
@@ -16700,7 +16700,7 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="2" t="s">
         <v>172</v>
       </c>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="2" t="s">
         <v>173</v>
       </c>
@@ -16910,7 +16910,7 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="12"/>
       <c r="B150" s="2" t="s">
         <v>174</v>
       </c>
@@ -17015,7 +17015,7 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="2" t="s">
         <v>175</v>
       </c>
@@ -17120,7 +17120,7 @@
       </c>
     </row>
     <row r="152" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="2" t="s">
         <v>176</v>
       </c>
@@ -17225,7 +17225,7 @@
       </c>
     </row>
     <row r="153" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -17332,7 +17332,7 @@
       </c>
     </row>
     <row r="154" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="2" t="s">
         <v>179</v>
       </c>
@@ -17437,7 +17437,7 @@
       </c>
     </row>
     <row r="155" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="2" t="s">
         <v>180</v>
       </c>
@@ -17542,7 +17542,7 @@
       </c>
     </row>
     <row r="156" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="2" t="s">
         <v>181</v>
       </c>
@@ -17647,7 +17647,7 @@
       </c>
     </row>
     <row r="157" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="2" t="s">
         <v>182</v>
       </c>
@@ -17752,7 +17752,7 @@
       </c>
     </row>
     <row r="158" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="12"/>
       <c r="B158" s="2" t="s">
         <v>183</v>
       </c>
@@ -17857,7 +17857,7 @@
       </c>
     </row>
     <row r="159" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="12"/>
       <c r="B159" s="2" t="s">
         <v>184</v>
       </c>
@@ -17962,7 +17962,7 @@
       </c>
     </row>
     <row r="160" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="2" t="s">
         <v>185</v>
       </c>
@@ -18067,7 +18067,7 @@
       </c>
     </row>
     <row r="161" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="12"/>
       <c r="B161" s="2" t="s">
         <v>186</v>
       </c>
@@ -18172,7 +18172,7 @@
       </c>
     </row>
     <row r="162" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="12"/>
       <c r="B162" s="2" t="s">
         <v>187</v>
       </c>
@@ -18277,7 +18277,7 @@
       </c>
     </row>
     <row r="163" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
+      <c r="A163" s="12"/>
       <c r="B163" s="2" t="s">
         <v>188</v>
       </c>
@@ -18382,7 +18382,7 @@
       </c>
     </row>
     <row r="164" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
+      <c r="A164" s="12"/>
       <c r="B164" s="2" t="s">
         <v>189</v>
       </c>
@@ -18487,7 +18487,7 @@
       </c>
     </row>
     <row r="165" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
+      <c r="A165" s="12"/>
       <c r="B165" s="2" t="s">
         <v>190</v>
       </c>
@@ -18592,7 +18592,7 @@
       </c>
     </row>
     <row r="166" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
+      <c r="A166" s="12"/>
       <c r="B166" s="2" t="s">
         <v>191</v>
       </c>
@@ -18697,7 +18697,7 @@
       </c>
     </row>
     <row r="167" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
+      <c r="A167" s="12"/>
       <c r="B167" s="2" t="s">
         <v>192</v>
       </c>
@@ -18802,7 +18802,7 @@
       </c>
     </row>
     <row r="168" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="2" t="s">
         <v>193</v>
       </c>
@@ -18907,7 +18907,7 @@
       </c>
     </row>
     <row r="169" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -19014,7 +19014,7 @@
       </c>
     </row>
     <row r="170" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
+      <c r="A170" s="12"/>
       <c r="B170" s="2" t="s">
         <v>196</v>
       </c>
@@ -19119,7 +19119,7 @@
       </c>
     </row>
     <row r="171" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="12"/>
       <c r="B171" s="2" t="s">
         <v>197</v>
       </c>
@@ -19224,7 +19224,7 @@
       </c>
     </row>
     <row r="172" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="12"/>
       <c r="B172" s="2" t="s">
         <v>198</v>
       </c>
@@ -19329,7 +19329,7 @@
       </c>
     </row>
     <row r="173" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="2" t="s">
         <v>199</v>
       </c>
@@ -19434,7 +19434,7 @@
       </c>
     </row>
     <row r="174" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="12"/>
       <c r="B174" s="2" t="s">
         <v>200</v>
       </c>
@@ -19539,7 +19539,7 @@
       </c>
     </row>
     <row r="175" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="12"/>
       <c r="B175" s="2" t="s">
         <v>201</v>
       </c>
@@ -19644,7 +19644,7 @@
       </c>
     </row>
     <row r="176" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="12"/>
       <c r="B176" s="2" t="s">
         <v>202</v>
       </c>
@@ -19749,7 +19749,7 @@
       </c>
     </row>
     <row r="177" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="12"/>
       <c r="B177" s="2" t="s">
         <v>203</v>
       </c>
@@ -19854,7 +19854,7 @@
       </c>
     </row>
     <row r="178" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="12"/>
       <c r="B178" s="2" t="s">
         <v>204</v>
       </c>
@@ -19959,7 +19959,7 @@
       </c>
     </row>
     <row r="179" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
+      <c r="A179" s="12"/>
       <c r="B179" s="2" t="s">
         <v>205</v>
       </c>
@@ -20064,7 +20064,7 @@
       </c>
     </row>
     <row r="180" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="12"/>
       <c r="B180" s="2" t="s">
         <v>206</v>
       </c>
@@ -20169,7 +20169,7 @@
       </c>
     </row>
     <row r="181" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="12"/>
       <c r="B181" s="2" t="s">
         <v>207</v>
       </c>
@@ -20274,7 +20274,7 @@
       </c>
     </row>
     <row r="182" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
+      <c r="A182" s="12"/>
       <c r="B182" s="2" t="s">
         <v>208</v>
       </c>
@@ -20379,7 +20379,7 @@
       </c>
     </row>
     <row r="183" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="12"/>
       <c r="B183" s="2" t="s">
         <v>209</v>
       </c>
@@ -20484,7 +20484,7 @@
       </c>
     </row>
     <row r="184" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
+      <c r="A184" s="12"/>
       <c r="B184" s="2" t="s">
         <v>210</v>
       </c>
@@ -20589,7 +20589,7 @@
       </c>
     </row>
     <row r="185" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="12" t="s">
         <v>211</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -20696,7 +20696,7 @@
       </c>
     </row>
     <row r="186" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="12"/>
       <c r="B186" s="2" t="s">
         <v>213</v>
       </c>
@@ -20801,7 +20801,7 @@
       </c>
     </row>
     <row r="187" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="12"/>
       <c r="B187" s="2" t="s">
         <v>214</v>
       </c>
@@ -20906,7 +20906,7 @@
       </c>
     </row>
     <row r="188" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="12"/>
       <c r="B188" s="2" t="s">
         <v>215</v>
       </c>
@@ -21011,7 +21011,7 @@
       </c>
     </row>
     <row r="189" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="12"/>
       <c r="B189" s="2" t="s">
         <v>216</v>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
     </row>
     <row r="190" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="12"/>
       <c r="B190" s="2" t="s">
         <v>217</v>
       </c>
@@ -21221,7 +21221,7 @@
       </c>
     </row>
     <row r="191" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
+      <c r="A191" s="12"/>
       <c r="B191" s="2" t="s">
         <v>218</v>
       </c>
@@ -21326,7 +21326,7 @@
       </c>
     </row>
     <row r="192" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="12"/>
       <c r="B192" s="2" t="s">
         <v>219</v>
       </c>
@@ -21431,7 +21431,7 @@
       </c>
     </row>
     <row r="193" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="12"/>
       <c r="B193" s="2" t="s">
         <v>220</v>
       </c>
@@ -21536,7 +21536,7 @@
       </c>
     </row>
     <row r="194" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="15"/>
+      <c r="A194" s="17"/>
       <c r="B194" s="3" t="s">
         <v>221</v>
       </c>
@@ -21643,6 +21643,20 @@
     <row r="195" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="A169:A184"/>
+    <mergeCell ref="A185:A194"/>
+    <mergeCell ref="A114:A137"/>
+    <mergeCell ref="A138:A152"/>
+    <mergeCell ref="A153:A168"/>
     <mergeCell ref="A72:A89"/>
     <mergeCell ref="A90:A113"/>
     <mergeCell ref="AD1:AD2"/>
@@ -21659,20 +21673,6 @@
     <mergeCell ref="A23:A36"/>
     <mergeCell ref="A37:A49"/>
     <mergeCell ref="A50:A71"/>
-    <mergeCell ref="A169:A184"/>
-    <mergeCell ref="A185:A194"/>
-    <mergeCell ref="A114:A137"/>
-    <mergeCell ref="A138:A152"/>
-    <mergeCell ref="A153:A168"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AH1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pop_count/data/JOR_ZAA_populationCount.xlsx
+++ b/pop_count/data/JOR_ZAA_populationCount.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -920,22 +920,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -947,8 +932,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:AH195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,9 +1312,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="11" width="13.5703125" customWidth="1"/>
+    <col min="7" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="24" width="9.5703125" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
@@ -1326,180 +1324,180 @@
     <col min="36" max="36" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:34" s="12" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="17" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:34" s="12" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1524,7 +1522,7 @@
         <v>293</v>
       </c>
       <c r="I3" s="5">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -1603,7 +1601,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>287</v>
       </c>
       <c r="I4" s="7">
-        <v>72.000000000000014</v>
+        <v>57</v>
       </c>
       <c r="J4" s="6">
         <v>2</v>
@@ -1705,7 +1703,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>603</v>
       </c>
       <c r="I5" s="7">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -1807,7 +1805,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>664.99999999999989</v>
       </c>
       <c r="I6" s="7">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1909,7 +1907,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +1930,7 @@
         <v>1042</v>
       </c>
       <c r="I7" s="7">
-        <v>237.00000000000006</v>
+        <v>185</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -2011,7 +2009,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2034,7 +2032,7 @@
         <v>924</v>
       </c>
       <c r="I8" s="7">
-        <v>206.00000000000006</v>
+        <v>156</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -2113,7 +2111,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>485.99999999999983</v>
       </c>
       <c r="I9" s="7">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -2215,7 +2213,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2238,7 +2236,7 @@
         <v>461</v>
       </c>
       <c r="I10" s="7">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
@@ -2317,7 +2315,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>560.99999999999989</v>
       </c>
       <c r="I11" s="7">
-        <v>116.00000000000004</v>
+        <v>99</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
@@ -2419,7 +2417,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>1364</v>
       </c>
       <c r="I12" s="7">
-        <v>318.00000000000011</v>
+        <v>249</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
@@ -2521,7 +2519,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2546,7 +2544,7 @@
         <v>823.99999999999989</v>
       </c>
       <c r="I13" s="7">
-        <v>175.00000000000006</v>
+        <v>146</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
@@ -2625,7 +2623,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>1326.9999999999998</v>
       </c>
       <c r="I14" s="7">
-        <v>304.99999999999989</v>
+        <v>234</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2727,7 +2725,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>843.99999999999989</v>
       </c>
       <c r="I15" s="7">
-        <v>178.00000000000009</v>
+        <v>130</v>
       </c>
       <c r="J15" s="6">
         <v>3</v>
@@ -2829,7 +2827,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2852,7 +2850,7 @@
         <v>691.99999999999989</v>
       </c>
       <c r="I16" s="7">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -2931,7 +2929,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2954,7 +2952,7 @@
         <v>566</v>
       </c>
       <c r="I17" s="7">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -3033,7 +3031,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3056,7 +3054,7 @@
         <v>881</v>
       </c>
       <c r="I18" s="7">
-        <v>189.00000000000006</v>
+        <v>145</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
@@ -3135,7 +3133,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>891.00000000000011</v>
       </c>
       <c r="I19" s="7">
-        <v>195.00000000000006</v>
+        <v>159</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -3237,7 +3235,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3260,7 +3258,7 @@
         <v>588.00000000000011</v>
       </c>
       <c r="I20" s="7">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
@@ -3339,7 +3337,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>550</v>
       </c>
       <c r="I21" s="7">
-        <v>111.00000000000006</v>
+        <v>92</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
@@ -3441,7 +3439,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>503.00000000000011</v>
       </c>
       <c r="I22" s="7">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
@@ -3543,7 +3541,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3568,7 +3566,7 @@
         <v>934.00000000000023</v>
       </c>
       <c r="I23" s="7">
-        <v>205.00000000000003</v>
+        <v>167</v>
       </c>
       <c r="J23" s="6">
         <v>2</v>
@@ -3647,7 +3645,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
@@ -3670,7 +3668,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="7">
-        <v>26.000000000000011</v>
+        <v>22</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
@@ -3749,7 +3747,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -3772,7 +3770,7 @@
         <v>359</v>
       </c>
       <c r="I25" s="7">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
@@ -3851,7 +3849,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>375</v>
       </c>
       <c r="I26" s="7">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J26" s="6">
         <v>1</v>
@@ -3953,7 +3951,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
@@ -3976,7 +3974,7 @@
         <v>385.00000000000006</v>
       </c>
       <c r="I27" s="7">
-        <v>88.000000000000028</v>
+        <v>64</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
@@ -4055,7 +4053,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4078,7 +4076,7 @@
         <v>145</v>
       </c>
       <c r="I28" s="7">
-        <v>37.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
@@ -4157,7 +4155,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>482.99999999999994</v>
       </c>
       <c r="I29" s="7">
-        <v>112.00000000000006</v>
+        <v>85</v>
       </c>
       <c r="J29" s="6">
         <v>2</v>
@@ -4259,7 +4257,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -4282,7 +4280,7 @@
         <v>256</v>
       </c>
       <c r="I30" s="7">
-        <v>56.000000000000014</v>
+        <v>43</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
@@ -4361,7 +4359,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>288</v>
       </c>
       <c r="I31" s="7">
-        <v>59.000000000000028</v>
+        <v>45</v>
       </c>
       <c r="J31" s="6">
         <v>0</v>
@@ -4463,7 +4461,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -4486,7 +4484,7 @@
         <v>160.00000000000003</v>
       </c>
       <c r="I32" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J32" s="6">
         <v>0</v>
@@ -4563,7 +4561,7 @@
       <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>715.00000000000011</v>
       </c>
       <c r="I33" s="7">
-        <v>161.00000000000011</v>
+        <v>127</v>
       </c>
       <c r="J33" s="6">
         <v>1</v>
@@ -4665,7 +4663,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
@@ -4688,7 +4686,7 @@
         <v>217</v>
       </c>
       <c r="I34" s="7">
-        <v>44.000000000000014</v>
+        <v>37</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
@@ -4767,7 +4765,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>453.00000000000006</v>
       </c>
       <c r="I35" s="7">
-        <v>113.00000000000003</v>
+        <v>87</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
@@ -4869,7 +4867,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
@@ -4892,7 +4890,7 @@
         <v>212</v>
       </c>
       <c r="I36" s="7">
-        <v>47.000000000000007</v>
+        <v>35</v>
       </c>
       <c r="J36" s="6">
         <v>0</v>
@@ -4971,7 +4969,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4996,7 +4994,7 @@
         <v>314</v>
       </c>
       <c r="I37" s="7">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J37" s="6">
         <v>0</v>
@@ -5075,7 +5073,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>296.00000000000006</v>
       </c>
       <c r="I38" s="7">
-        <v>69.000000000000014</v>
+        <v>60</v>
       </c>
       <c r="J38" s="6">
         <v>0</v>
@@ -5177,7 +5175,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>400.99999999999977</v>
       </c>
       <c r="I39" s="7">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -5279,7 +5277,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>283</v>
       </c>
       <c r="I40" s="7">
-        <v>61.000000000000007</v>
+        <v>54</v>
       </c>
       <c r="J40" s="6">
         <v>1</v>
@@ -5379,7 +5377,7 @@
       <c r="AH40" s="8"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
@@ -5402,7 +5400,7 @@
         <v>318</v>
       </c>
       <c r="I41" s="7">
-        <v>76.000000000000014</v>
+        <v>62</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -5481,7 +5479,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
@@ -5504,7 +5502,7 @@
         <v>530.00000000000011</v>
       </c>
       <c r="I42" s="7">
-        <v>102.00000000000001</v>
+        <v>86</v>
       </c>
       <c r="J42" s="6">
         <v>0</v>
@@ -5583,7 +5581,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
@@ -5606,7 +5604,7 @@
         <v>468.00000000000011</v>
       </c>
       <c r="I43" s="7">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -5685,7 +5683,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>258</v>
       </c>
       <c r="I44" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J44" s="6">
         <v>2</v>
@@ -5787,7 +5785,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2" t="s">
         <v>62</v>
       </c>
@@ -5810,7 +5808,7 @@
         <v>306</v>
       </c>
       <c r="I45" s="7">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
@@ -5889,7 +5887,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
@@ -5912,7 +5910,7 @@
         <v>315.00000000000006</v>
       </c>
       <c r="I46" s="7">
-        <v>62.000000000000028</v>
+        <v>57</v>
       </c>
       <c r="J46" s="6">
         <v>0</v>
@@ -5991,7 +5989,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
@@ -6014,7 +6012,7 @@
         <v>356</v>
       </c>
       <c r="I47" s="7">
-        <v>83.000000000000028</v>
+        <v>70</v>
       </c>
       <c r="J47" s="6">
         <v>0</v>
@@ -6093,7 +6091,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -6116,7 +6114,7 @@
         <v>179.00000000000003</v>
       </c>
       <c r="I48" s="7">
-        <v>41.000000000000007</v>
+        <v>34</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -6195,7 +6193,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>581.00000000000011</v>
       </c>
       <c r="I49" s="7">
-        <v>125.99999999999993</v>
+        <v>106</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
@@ -6297,7 +6295,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6322,7 +6320,7 @@
         <v>701.99999999999966</v>
       </c>
       <c r="I50" s="7">
-        <v>156.00000000000006</v>
+        <v>132</v>
       </c>
       <c r="J50" s="6">
         <v>9</v>
@@ -6401,7 +6399,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
@@ -6424,7 +6422,7 @@
         <v>485</v>
       </c>
       <c r="I51" s="7">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J51" s="6">
         <v>6</v>
@@ -6503,7 +6501,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
@@ -6526,7 +6524,7 @@
         <v>159</v>
       </c>
       <c r="I52" s="7">
-        <v>34.000000000000007</v>
+        <v>30</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
@@ -6605,7 +6603,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
@@ -6628,7 +6626,7 @@
         <v>230.00000000000006</v>
       </c>
       <c r="I53" s="7">
-        <v>57.000000000000014</v>
+        <v>48</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
@@ -6707,7 +6705,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
@@ -6730,7 +6728,7 @@
         <v>229.00000000000006</v>
       </c>
       <c r="I54" s="7">
-        <v>48.000000000000007</v>
+        <v>42</v>
       </c>
       <c r="J54" s="6">
         <v>3</v>
@@ -6809,7 +6807,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
@@ -6832,7 +6830,7 @@
         <v>247</v>
       </c>
       <c r="I55" s="7">
-        <v>50.000000000000007</v>
+        <v>41</v>
       </c>
       <c r="J55" s="6">
         <v>2</v>
@@ -6911,7 +6909,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
@@ -6934,7 +6932,7 @@
         <v>273</v>
       </c>
       <c r="I56" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J56" s="6">
         <v>1</v>
@@ -7013,7 +7011,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="2" t="s">
         <v>75</v>
       </c>
@@ -7036,7 +7034,7 @@
         <v>301</v>
       </c>
       <c r="I57" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
@@ -7115,7 +7113,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
@@ -7138,7 +7136,7 @@
         <v>299.00000000000006</v>
       </c>
       <c r="I58" s="7">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -7217,7 +7215,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="2" t="s">
         <v>77</v>
       </c>
@@ -7240,7 +7238,7 @@
         <v>389</v>
       </c>
       <c r="I59" s="7">
-        <v>78.000000000000028</v>
+        <v>63</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -7319,7 +7317,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>78</v>
       </c>
@@ -7342,7 +7340,7 @@
         <v>233.00000000000003</v>
       </c>
       <c r="I60" s="7">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J60" s="6">
         <v>2</v>
@@ -7421,7 +7419,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
@@ -7444,7 +7442,7 @@
         <v>249.00000000000003</v>
       </c>
       <c r="I61" s="7">
-        <v>50.000000000000007</v>
+        <v>40</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -7523,7 +7521,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
@@ -7546,7 +7544,7 @@
         <v>258</v>
       </c>
       <c r="I62" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -7625,7 +7623,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
@@ -7648,7 +7646,7 @@
         <v>240.00000000000006</v>
       </c>
       <c r="I63" s="7">
-        <v>50.000000000000007</v>
+        <v>42</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -7727,7 +7725,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>240</v>
       </c>
       <c r="I64" s="7">
-        <v>51.000000000000007</v>
+        <v>39</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
@@ -7829,7 +7827,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>245</v>
       </c>
       <c r="I65" s="7">
-        <v>49.000000000000014</v>
+        <v>40</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -7931,7 +7929,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -7954,7 +7952,7 @@
         <v>215</v>
       </c>
       <c r="I66" s="7">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -8033,7 +8031,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -8056,7 +8054,7 @@
         <v>221.00000000000003</v>
       </c>
       <c r="I67" s="7">
-        <v>44.000000000000021</v>
+        <v>42</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -8135,7 +8133,7 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="2" t="s">
         <v>86</v>
       </c>
@@ -8158,7 +8156,7 @@
         <v>114.00000000000003</v>
       </c>
       <c r="I68" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -8235,7 +8233,7 @@
       <c r="AH68" s="8"/>
     </row>
     <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
@@ -8258,7 +8256,7 @@
         <v>123.00000000000003</v>
       </c>
       <c r="I69" s="7">
-        <v>27.000000000000007</v>
+        <v>21</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
@@ -8337,7 +8335,7 @@
       </c>
     </row>
     <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="2" t="s">
         <v>88</v>
       </c>
@@ -8360,7 +8358,7 @@
         <v>245</v>
       </c>
       <c r="I70" s="7">
-        <v>55.000000000000014</v>
+        <v>48</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -8439,7 +8437,7 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="2" t="s">
         <v>89</v>
       </c>
@@ -8537,7 +8535,7 @@
       <c r="AH71" s="8"/>
     </row>
     <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -8562,7 +8560,7 @@
         <v>601</v>
       </c>
       <c r="I72" s="7">
-        <v>140.99999999999989</v>
+        <v>131</v>
       </c>
       <c r="J72" s="6">
         <v>1</v>
@@ -8641,7 +8639,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2" t="s">
         <v>92</v>
       </c>
@@ -8739,7 +8737,7 @@
       <c r="AH73" s="8"/>
     </row>
     <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
@@ -8762,7 +8760,7 @@
         <v>481.99999999999994</v>
       </c>
       <c r="I74" s="7">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J74" s="6">
         <v>1</v>
@@ -8841,7 +8839,7 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
@@ -8864,7 +8862,7 @@
         <v>352</v>
       </c>
       <c r="I75" s="7">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -8943,7 +8941,7 @@
       </c>
     </row>
     <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="2" t="s">
         <v>95</v>
       </c>
@@ -8966,7 +8964,7 @@
         <v>464</v>
       </c>
       <c r="I76" s="7">
-        <v>93.000000000000028</v>
+        <v>78</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
@@ -9045,7 +9043,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
@@ -9068,7 +9066,7 @@
         <v>378.00000000000006</v>
       </c>
       <c r="I77" s="7">
-        <v>79.000000000000014</v>
+        <v>59</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -9147,7 +9145,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="2" t="s">
         <v>97</v>
       </c>
@@ -9170,7 +9168,7 @@
         <v>416.00000000000011</v>
       </c>
       <c r="I78" s="7">
-        <v>85.000000000000043</v>
+        <v>77</v>
       </c>
       <c r="J78" s="6">
         <v>1</v>
@@ -9249,7 +9247,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="2" t="s">
         <v>98</v>
       </c>
@@ -9272,7 +9270,7 @@
         <v>382</v>
       </c>
       <c r="I79" s="7">
-        <v>82.000000000000014</v>
+        <v>65</v>
       </c>
       <c r="J79" s="6">
         <v>0</v>
@@ -9351,7 +9349,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="2" t="s">
         <v>99</v>
       </c>
@@ -9374,7 +9372,7 @@
         <v>466.00000000000023</v>
       </c>
       <c r="I80" s="7">
-        <v>89.000000000000028</v>
+        <v>76</v>
       </c>
       <c r="J80" s="6">
         <v>0</v>
@@ -9453,7 +9451,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>100</v>
       </c>
@@ -9476,7 +9474,7 @@
         <v>427</v>
       </c>
       <c r="I81" s="7">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="J81" s="6">
         <v>0</v>
@@ -9555,7 +9553,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="2" t="s">
         <v>101</v>
       </c>
@@ -9578,7 +9576,7 @@
         <v>400</v>
       </c>
       <c r="I82" s="7">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="J82" s="6">
         <v>5</v>
@@ -9657,7 +9655,7 @@
       </c>
     </row>
     <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
@@ -9680,7 +9678,7 @@
         <v>410</v>
       </c>
       <c r="I83" s="7">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J83" s="6">
         <v>0</v>
@@ -9759,7 +9757,7 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="2" t="s">
         <v>103</v>
       </c>
@@ -9782,7 +9780,7 @@
         <v>575.99999999999977</v>
       </c>
       <c r="I84" s="7">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J84" s="6">
         <v>0</v>
@@ -9861,7 +9859,7 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="2" t="s">
         <v>104</v>
       </c>
@@ -9884,7 +9882,7 @@
         <v>355.99999999999989</v>
       </c>
       <c r="I85" s="7">
-        <v>76.000000000000014</v>
+        <v>59</v>
       </c>
       <c r="J85" s="6">
         <v>0</v>
@@ -9963,7 +9961,7 @@
       </c>
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="2" t="s">
         <v>105</v>
       </c>
@@ -9986,7 +9984,7 @@
         <v>464.99999999999989</v>
       </c>
       <c r="I86" s="7">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="J86" s="6">
         <v>0</v>
@@ -10065,7 +10063,7 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="2" t="s">
         <v>106</v>
       </c>
@@ -10088,7 +10086,7 @@
         <v>293.00000000000023</v>
       </c>
       <c r="I87" s="7">
-        <v>68.000000000000028</v>
+        <v>57</v>
       </c>
       <c r="J87" s="6">
         <v>0</v>
@@ -10167,7 +10165,7 @@
       </c>
     </row>
     <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="2" t="s">
         <v>107</v>
       </c>
@@ -10190,7 +10188,7 @@
         <v>321</v>
       </c>
       <c r="I88" s="7">
-        <v>73.000000000000028</v>
+        <v>65</v>
       </c>
       <c r="J88" s="6">
         <v>3</v>
@@ -10269,7 +10267,7 @@
       </c>
     </row>
     <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="2" t="s">
         <v>108</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>391</v>
       </c>
       <c r="I89" s="7">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J89" s="6">
         <v>1</v>
@@ -10371,7 +10369,7 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -10396,7 +10394,7 @@
         <v>217.00000000000003</v>
       </c>
       <c r="I90" s="7">
-        <v>47.000000000000021</v>
+        <v>40</v>
       </c>
       <c r="J90" s="6">
         <v>1</v>
@@ -10475,7 +10473,7 @@
       </c>
     </row>
     <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="2" t="s">
         <v>111</v>
       </c>
@@ -10498,7 +10496,7 @@
         <v>337</v>
       </c>
       <c r="I91" s="7">
-        <v>72.000000000000014</v>
+        <v>50</v>
       </c>
       <c r="J91" s="6">
         <v>0</v>
@@ -10577,7 +10575,7 @@
       </c>
     </row>
     <row r="92" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="2" t="s">
         <v>112</v>
       </c>
@@ -10679,7 +10677,7 @@
       </c>
     </row>
     <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="2" t="s">
         <v>113</v>
       </c>
@@ -10702,7 +10700,7 @@
         <v>252.00000000000003</v>
       </c>
       <c r="I93" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J93" s="6">
         <v>3</v>
@@ -10781,7 +10779,7 @@
       </c>
     </row>
     <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="2" t="s">
         <v>114</v>
       </c>
@@ -10804,7 +10802,7 @@
         <v>257</v>
       </c>
       <c r="I94" s="7">
-        <v>51.000000000000014</v>
+        <v>47</v>
       </c>
       <c r="J94" s="6">
         <v>0</v>
@@ -10883,7 +10881,7 @@
       </c>
     </row>
     <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="2" t="s">
         <v>115</v>
       </c>
@@ -10906,7 +10904,7 @@
         <v>294.00000000000006</v>
       </c>
       <c r="I95" s="7">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J95" s="6">
         <v>0</v>
@@ -10985,7 +10983,7 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
@@ -11008,7 +11006,7 @@
         <v>173</v>
       </c>
       <c r="I96" s="7">
-        <v>42.000000000000014</v>
+        <v>35</v>
       </c>
       <c r="J96" s="6">
         <v>1</v>
@@ -11087,7 +11085,7 @@
       </c>
     </row>
     <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="2" t="s">
         <v>117</v>
       </c>
@@ -11110,7 +11108,7 @@
         <v>337.00000000000011</v>
       </c>
       <c r="I97" s="7">
-        <v>79.000000000000028</v>
+        <v>63</v>
       </c>
       <c r="J97" s="6">
         <v>0</v>
@@ -11189,7 +11187,7 @@
       </c>
     </row>
     <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="2" t="s">
         <v>118</v>
       </c>
@@ -11212,7 +11210,7 @@
         <v>342</v>
       </c>
       <c r="I98" s="7">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J98" s="6">
         <v>1</v>
@@ -11291,7 +11289,7 @@
       </c>
     </row>
     <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="2" t="s">
         <v>119</v>
       </c>
@@ -11314,7 +11312,7 @@
         <v>364.00000000000006</v>
       </c>
       <c r="I99" s="7">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J99" s="6">
         <v>0</v>
@@ -11393,7 +11391,7 @@
       </c>
     </row>
     <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="2" t="s">
         <v>120</v>
       </c>
@@ -11416,7 +11414,7 @@
         <v>218</v>
       </c>
       <c r="I100" s="7">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J100" s="6">
         <v>0</v>
@@ -11495,7 +11493,7 @@
       </c>
     </row>
     <row r="101" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="2" t="s">
         <v>121</v>
       </c>
@@ -11518,7 +11516,7 @@
         <v>323</v>
       </c>
       <c r="I101" s="7">
-        <v>71.000000000000014</v>
+        <v>67</v>
       </c>
       <c r="J101" s="6">
         <v>0</v>
@@ -11597,7 +11595,7 @@
       </c>
     </row>
     <row r="102" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="2" t="s">
         <v>122</v>
       </c>
@@ -11620,7 +11618,7 @@
         <v>331.00000000000006</v>
       </c>
       <c r="I102" s="7">
-        <v>71.000000000000014</v>
+        <v>63</v>
       </c>
       <c r="J102" s="6">
         <v>0</v>
@@ -11699,7 +11697,7 @@
       </c>
     </row>
     <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="2" t="s">
         <v>123</v>
       </c>
@@ -11722,7 +11720,7 @@
         <v>423.00000000000006</v>
       </c>
       <c r="I103" s="7">
-        <v>90.000000000000028</v>
+        <v>82</v>
       </c>
       <c r="J103" s="6">
         <v>0</v>
@@ -11801,7 +11799,7 @@
       </c>
     </row>
     <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="2" t="s">
         <v>124</v>
       </c>
@@ -11824,7 +11822,7 @@
         <v>218</v>
       </c>
       <c r="I104" s="7">
-        <v>48.000000000000007</v>
+        <v>43</v>
       </c>
       <c r="J104" s="6">
         <v>0</v>
@@ -11903,7 +11901,7 @@
       </c>
     </row>
     <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="2" t="s">
         <v>125</v>
       </c>
@@ -11926,7 +11924,7 @@
         <v>306.00000000000006</v>
       </c>
       <c r="I105" s="7">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J105" s="6">
         <v>4</v>
@@ -12005,7 +12003,7 @@
       </c>
     </row>
     <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="2" t="s">
         <v>126</v>
       </c>
@@ -12028,7 +12026,7 @@
         <v>245</v>
       </c>
       <c r="I106" s="7">
-        <v>48.000000000000007</v>
+        <v>44</v>
       </c>
       <c r="J106" s="6">
         <v>0</v>
@@ -12107,7 +12105,7 @@
       </c>
     </row>
     <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="2" t="s">
         <v>127</v>
       </c>
@@ -12130,7 +12128,7 @@
         <v>504.00000000000011</v>
       </c>
       <c r="I107" s="7">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="J107" s="6">
         <v>0</v>
@@ -12209,7 +12207,7 @@
       </c>
     </row>
     <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="2" t="s">
         <v>128</v>
       </c>
@@ -12232,7 +12230,7 @@
         <v>307</v>
       </c>
       <c r="I108" s="7">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J108" s="6">
         <v>0</v>
@@ -12311,7 +12309,7 @@
       </c>
     </row>
     <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="2" t="s">
         <v>129</v>
       </c>
@@ -12334,7 +12332,7 @@
         <v>258</v>
       </c>
       <c r="I109" s="7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J109" s="6">
         <v>0</v>
@@ -12413,7 +12411,7 @@
       </c>
     </row>
     <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="2" t="s">
         <v>130</v>
       </c>
@@ -12436,7 +12434,7 @@
         <v>284.00000000000006</v>
       </c>
       <c r="I110" s="7">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J110" s="6">
         <v>0</v>
@@ -12515,7 +12513,7 @@
       </c>
     </row>
     <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="2" t="s">
         <v>131</v>
       </c>
@@ -12538,7 +12536,7 @@
         <v>234</v>
       </c>
       <c r="I111" s="7">
-        <v>49.000000000000007</v>
+        <v>45</v>
       </c>
       <c r="J111" s="6">
         <v>0</v>
@@ -12615,7 +12613,7 @@
       <c r="AH111" s="8"/>
     </row>
     <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="2" t="s">
         <v>132</v>
       </c>
@@ -12638,7 +12636,7 @@
         <v>506.00000000000045</v>
       </c>
       <c r="I112" s="7">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J112" s="6">
         <v>4</v>
@@ -12717,7 +12715,7 @@
       </c>
     </row>
     <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="2" t="s">
         <v>133</v>
       </c>
@@ -12740,7 +12738,7 @@
         <v>333.00000000000006</v>
       </c>
       <c r="I113" s="7">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J113" s="6">
         <v>0</v>
@@ -12819,7 +12817,7 @@
       </c>
     </row>
     <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -12844,7 +12842,7 @@
         <v>292.00000000000011</v>
       </c>
       <c r="I114" s="7">
-        <v>65.000000000000014</v>
+        <v>58</v>
       </c>
       <c r="J114" s="6">
         <v>0</v>
@@ -12923,7 +12921,7 @@
       </c>
     </row>
     <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="2" t="s">
         <v>136</v>
       </c>
@@ -12946,7 +12944,7 @@
         <v>530</v>
       </c>
       <c r="I115" s="7">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J115" s="6">
         <v>3</v>
@@ -13025,7 +13023,7 @@
       </c>
     </row>
     <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="2" t="s">
         <v>137</v>
       </c>
@@ -13048,7 +13046,7 @@
         <v>254.00000000000011</v>
       </c>
       <c r="I116" s="7">
-        <v>59.000000000000007</v>
+        <v>44</v>
       </c>
       <c r="J116" s="6">
         <v>0</v>
@@ -13127,7 +13125,7 @@
       </c>
     </row>
     <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="2" t="s">
         <v>138</v>
       </c>
@@ -13150,7 +13148,7 @@
         <v>401.99999999999983</v>
       </c>
       <c r="I117" s="7">
-        <v>83.000000000000014</v>
+        <v>78</v>
       </c>
       <c r="J117" s="6">
         <v>0</v>
@@ -13229,7 +13227,7 @@
       </c>
     </row>
     <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="2" t="s">
         <v>139</v>
       </c>
@@ -13252,7 +13250,7 @@
         <v>192</v>
       </c>
       <c r="I118" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J118" s="6">
         <v>0</v>
@@ -13331,7 +13329,7 @@
       </c>
     </row>
     <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="2" t="s">
         <v>140</v>
       </c>
@@ -13354,7 +13352,7 @@
         <v>353.00000000000006</v>
       </c>
       <c r="I119" s="7">
-        <v>76.000000000000028</v>
+        <v>67</v>
       </c>
       <c r="J119" s="6">
         <v>0</v>
@@ -13433,7 +13431,7 @@
       </c>
     </row>
     <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="2" t="s">
         <v>141</v>
       </c>
@@ -13456,7 +13454,7 @@
         <v>263</v>
       </c>
       <c r="I120" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J120" s="6">
         <v>2</v>
@@ -13535,7 +13533,7 @@
       </c>
     </row>
     <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="2" t="s">
         <v>142</v>
       </c>
@@ -13558,7 +13556,7 @@
         <v>463</v>
       </c>
       <c r="I121" s="7">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J121" s="6">
         <v>2</v>
@@ -13637,7 +13635,7 @@
       </c>
     </row>
     <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="2" t="s">
         <v>143</v>
       </c>
@@ -13660,7 +13658,7 @@
         <v>241</v>
       </c>
       <c r="I122" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J122" s="6">
         <v>0</v>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="2" t="s">
         <v>144</v>
       </c>
@@ -13762,7 +13760,7 @@
         <v>397.00000000000011</v>
       </c>
       <c r="I123" s="7">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J123" s="6">
         <v>2</v>
@@ -13841,7 +13839,7 @@
       </c>
     </row>
     <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="2" t="s">
         <v>145</v>
       </c>
@@ -13864,7 +13862,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J124" s="6">
         <v>0</v>
@@ -13943,7 +13941,7 @@
       </c>
     </row>
     <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="2" t="s">
         <v>146</v>
       </c>
@@ -13966,7 +13964,7 @@
         <v>530.00000000000011</v>
       </c>
       <c r="I125" s="7">
-        <v>112.00000000000003</v>
+        <v>95</v>
       </c>
       <c r="J125" s="6">
         <v>1</v>
@@ -14045,7 +14043,7 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="2" t="s">
         <v>147</v>
       </c>
@@ -14068,7 +14066,7 @@
         <v>231</v>
       </c>
       <c r="I126" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J126" s="6">
         <v>0</v>
@@ -14145,7 +14143,7 @@
       </c>
     </row>
     <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="2" t="s">
         <v>148</v>
       </c>
@@ -14168,7 +14166,7 @@
         <v>348.99999999999989</v>
       </c>
       <c r="I127" s="7">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J127" s="6">
         <v>0</v>
@@ -14247,7 +14245,7 @@
       </c>
     </row>
     <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="2" t="s">
         <v>149</v>
       </c>
@@ -14270,7 +14268,7 @@
         <v>237.00000000000006</v>
       </c>
       <c r="I128" s="7">
-        <v>51.000000000000028</v>
+        <v>41</v>
       </c>
       <c r="J128" s="6">
         <v>2</v>
@@ -14349,7 +14347,7 @@
       </c>
     </row>
     <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
+      <c r="A129" s="18"/>
       <c r="B129" s="2" t="s">
         <v>150</v>
       </c>
@@ -14372,7 +14370,7 @@
         <v>604.99999999999977</v>
       </c>
       <c r="I129" s="7">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J129" s="6">
         <v>0</v>
@@ -14451,7 +14449,7 @@
       </c>
     </row>
     <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="2" t="s">
         <v>151</v>
       </c>
@@ -14474,7 +14472,7 @@
         <v>228.00000000000003</v>
       </c>
       <c r="I130" s="7">
-        <v>52.000000000000007</v>
+        <v>38</v>
       </c>
       <c r="J130" s="6">
         <v>0</v>
@@ -14553,7 +14551,7 @@
       </c>
     </row>
     <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="2" t="s">
         <v>152</v>
       </c>
@@ -14576,7 +14574,7 @@
         <v>329</v>
       </c>
       <c r="I131" s="7">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J131" s="6">
         <v>1</v>
@@ -14655,7 +14653,7 @@
       </c>
     </row>
     <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="2" t="s">
         <v>153</v>
       </c>
@@ -14678,7 +14676,7 @@
         <v>236</v>
       </c>
       <c r="I132" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J132" s="6">
         <v>0</v>
@@ -14757,7 +14755,7 @@
       </c>
     </row>
     <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="2" t="s">
         <v>154</v>
       </c>
@@ -14780,7 +14778,7 @@
         <v>419.99999999999989</v>
       </c>
       <c r="I133" s="7">
-        <v>81.000000000000028</v>
+        <v>69</v>
       </c>
       <c r="J133" s="6">
         <v>0</v>
@@ -14859,7 +14857,7 @@
       </c>
     </row>
     <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="2" t="s">
         <v>155</v>
       </c>
@@ -14882,7 +14880,7 @@
         <v>166</v>
       </c>
       <c r="I134" s="7">
-        <v>34.000000000000007</v>
+        <v>31</v>
       </c>
       <c r="J134" s="6">
         <v>2</v>
@@ -14961,7 +14959,7 @@
       </c>
     </row>
     <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="2" t="s">
         <v>156</v>
       </c>
@@ -14984,7 +14982,7 @@
         <v>436.99999999999983</v>
       </c>
       <c r="I135" s="7">
-        <v>84.000000000000014</v>
+        <v>81</v>
       </c>
       <c r="J135" s="6">
         <v>0</v>
@@ -15063,7 +15061,7 @@
       </c>
     </row>
     <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="2" t="s">
         <v>157</v>
       </c>
@@ -15086,7 +15084,7 @@
         <v>197</v>
       </c>
       <c r="I136" s="7">
-        <v>37.000000000000007</v>
+        <v>34</v>
       </c>
       <c r="J136" s="6">
         <v>1</v>
@@ -15165,7 +15163,7 @@
       </c>
     </row>
     <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="18"/>
       <c r="B137" s="2" t="s">
         <v>158</v>
       </c>
@@ -15188,7 +15186,7 @@
         <v>565.99999999999966</v>
       </c>
       <c r="I137" s="7">
-        <v>109.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="J137" s="6">
         <v>0</v>
@@ -15267,7 +15265,7 @@
       </c>
     </row>
     <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -15292,7 +15290,7 @@
         <v>359</v>
       </c>
       <c r="I138" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J138" s="6">
         <v>0</v>
@@ -15371,7 +15369,7 @@
       </c>
     </row>
     <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+      <c r="A139" s="18"/>
       <c r="B139" s="2" t="s">
         <v>161</v>
       </c>
@@ -15394,7 +15392,7 @@
         <v>346.99999999999989</v>
       </c>
       <c r="I139" s="7">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J139" s="6">
         <v>0</v>
@@ -15473,7 +15471,7 @@
       </c>
     </row>
     <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+      <c r="A140" s="18"/>
       <c r="B140" s="2" t="s">
         <v>162</v>
       </c>
@@ -15496,7 +15494,7 @@
         <v>267.00000000000006</v>
       </c>
       <c r="I140" s="7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J140" s="6">
         <v>1</v>
@@ -15575,7 +15573,7 @@
       </c>
     </row>
     <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="2" t="s">
         <v>163</v>
       </c>
@@ -15598,7 +15596,7 @@
         <v>493</v>
       </c>
       <c r="I141" s="7">
-        <v>109.00000000000007</v>
+        <v>97</v>
       </c>
       <c r="J141" s="6">
         <v>0</v>
@@ -15677,7 +15675,7 @@
       </c>
     </row>
     <row r="142" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="2" t="s">
         <v>164</v>
       </c>
@@ -15700,7 +15698,7 @@
         <v>355</v>
       </c>
       <c r="I142" s="7">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J142" s="6">
         <v>0</v>
@@ -15779,7 +15777,7 @@
       </c>
     </row>
     <row r="143" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="2" t="s">
         <v>165</v>
       </c>
@@ -15802,7 +15800,7 @@
         <v>492.99999999999983</v>
       </c>
       <c r="I143" s="7">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J143" s="6">
         <v>0</v>
@@ -15881,7 +15879,7 @@
       </c>
     </row>
     <row r="144" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
+      <c r="A144" s="18"/>
       <c r="B144" s="2" t="s">
         <v>166</v>
       </c>
@@ -15904,7 +15902,7 @@
         <v>330.00000000000006</v>
       </c>
       <c r="I144" s="7">
-        <v>71.000000000000014</v>
+        <v>68</v>
       </c>
       <c r="J144" s="6">
         <v>0</v>
@@ -15983,7 +15981,7 @@
       </c>
     </row>
     <row r="145" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+      <c r="A145" s="18"/>
       <c r="B145" s="2" t="s">
         <v>167</v>
       </c>
@@ -16006,7 +16004,7 @@
         <v>305</v>
       </c>
       <c r="I145" s="7">
-        <v>63.000000000000028</v>
+        <v>56</v>
       </c>
       <c r="J145" s="6">
         <v>1</v>
@@ -16085,7 +16083,7 @@
       </c>
     </row>
     <row r="146" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="2" t="s">
         <v>168</v>
       </c>
@@ -16108,7 +16106,7 @@
         <v>275</v>
       </c>
       <c r="I146" s="7">
-        <v>52.000000000000014</v>
+        <v>48</v>
       </c>
       <c r="J146" s="6">
         <v>0</v>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="147" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
+      <c r="A147" s="18"/>
       <c r="B147" s="2" t="s">
         <v>169</v>
       </c>
@@ -16210,7 +16208,7 @@
         <v>314.99999999999989</v>
       </c>
       <c r="I147" s="7">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J147" s="6">
         <v>0</v>
@@ -16289,7 +16287,7 @@
       </c>
     </row>
     <row r="148" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+      <c r="A148" s="18"/>
       <c r="B148" s="2" t="s">
         <v>170</v>
       </c>
@@ -16312,7 +16310,7 @@
         <v>333</v>
       </c>
       <c r="I148" s="7">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J148" s="6">
         <v>0</v>
@@ -16391,7 +16389,7 @@
       </c>
     </row>
     <row r="149" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+      <c r="A149" s="18"/>
       <c r="B149" s="2" t="s">
         <v>171</v>
       </c>
@@ -16414,7 +16412,7 @@
         <v>200</v>
       </c>
       <c r="I149" s="7">
-        <v>37.000000000000014</v>
+        <v>31</v>
       </c>
       <c r="J149" s="6">
         <v>1</v>
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="2" t="s">
         <v>172</v>
       </c>
@@ -16516,7 +16514,7 @@
         <v>346</v>
       </c>
       <c r="I150" s="7">
-        <v>75.000000000000028</v>
+        <v>61</v>
       </c>
       <c r="J150" s="6">
         <v>1</v>
@@ -16595,7 +16593,7 @@
       </c>
     </row>
     <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+      <c r="A151" s="18"/>
       <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
@@ -16618,7 +16616,7 @@
         <v>278</v>
       </c>
       <c r="I151" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J151" s="6">
         <v>0</v>
@@ -16697,7 +16695,7 @@
       </c>
     </row>
     <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+      <c r="A152" s="18"/>
       <c r="B152" s="2" t="s">
         <v>174</v>
       </c>
@@ -16720,7 +16718,7 @@
         <v>212</v>
       </c>
       <c r="I152" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J152" s="6">
         <v>0</v>
@@ -16799,7 +16797,7 @@
       </c>
     </row>
     <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -16824,7 +16822,7 @@
         <v>287</v>
       </c>
       <c r="I153" s="7">
-        <v>62.000000000000007</v>
+        <v>51</v>
       </c>
       <c r="J153" s="6">
         <v>0</v>
@@ -16903,7 +16901,7 @@
       </c>
     </row>
     <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="2" t="s">
         <v>177</v>
       </c>
@@ -16926,7 +16924,7 @@
         <v>346.00000000000006</v>
       </c>
       <c r="I154" s="7">
-        <v>70.000000000000028</v>
+        <v>56</v>
       </c>
       <c r="J154" s="6">
         <v>0</v>
@@ -17005,7 +17003,7 @@
       </c>
     </row>
     <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="2" t="s">
         <v>178</v>
       </c>
@@ -17028,7 +17026,7 @@
         <v>490.99999999999989</v>
       </c>
       <c r="I155" s="7">
-        <v>99.000000000000043</v>
+        <v>84</v>
       </c>
       <c r="J155" s="6">
         <v>0</v>
@@ -17107,7 +17105,7 @@
       </c>
     </row>
     <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="2" t="s">
         <v>179</v>
       </c>
@@ -17130,7 +17128,7 @@
         <v>428</v>
       </c>
       <c r="I156" s="7">
-        <v>82.000000000000014</v>
+        <v>72</v>
       </c>
       <c r="J156" s="6">
         <v>0</v>
@@ -17209,7 +17207,7 @@
       </c>
     </row>
     <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+      <c r="A157" s="18"/>
       <c r="B157" s="2" t="s">
         <v>180</v>
       </c>
@@ -17232,7 +17230,7 @@
         <v>601.00000000000034</v>
       </c>
       <c r="I157" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="J157" s="6">
         <v>0</v>
@@ -17311,7 +17309,7 @@
       </c>
     </row>
     <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="2" t="s">
         <v>181</v>
       </c>
@@ -17334,7 +17332,7 @@
         <v>362</v>
       </c>
       <c r="I158" s="7">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J158" s="6">
         <v>1</v>
@@ -17413,7 +17411,7 @@
       </c>
     </row>
     <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="2" t="s">
         <v>182</v>
       </c>
@@ -17436,7 +17434,7 @@
         <v>588.00000000000011</v>
       </c>
       <c r="I159" s="7">
-        <v>118.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="J159" s="6">
         <v>2</v>
@@ -17515,7 +17513,7 @@
       </c>
     </row>
     <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
+      <c r="A160" s="18"/>
       <c r="B160" s="2" t="s">
         <v>183</v>
       </c>
@@ -17538,7 +17536,7 @@
         <v>565.00000000000023</v>
       </c>
       <c r="I160" s="7">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="J160" s="6">
         <v>0</v>
@@ -17617,7 +17615,7 @@
       </c>
     </row>
     <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
+      <c r="A161" s="18"/>
       <c r="B161" s="2" t="s">
         <v>184</v>
       </c>
@@ -17640,7 +17638,7 @@
         <v>356</v>
       </c>
       <c r="I161" s="7">
-        <v>70.000000000000057</v>
+        <v>60</v>
       </c>
       <c r="J161" s="6">
         <v>0</v>
@@ -17719,7 +17717,7 @@
       </c>
     </row>
     <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="2" t="s">
         <v>185</v>
       </c>
@@ -17742,7 +17740,7 @@
         <v>354.00000000000006</v>
       </c>
       <c r="I162" s="7">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J162" s="6">
         <v>0</v>
@@ -17821,7 +17819,7 @@
       </c>
     </row>
     <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
+      <c r="A163" s="18"/>
       <c r="B163" s="2" t="s">
         <v>186</v>
       </c>
@@ -17844,7 +17842,7 @@
         <v>434.00000000000006</v>
       </c>
       <c r="I163" s="7">
-        <v>91.000000000000028</v>
+        <v>72</v>
       </c>
       <c r="J163" s="6">
         <v>0</v>
@@ -17923,7 +17921,7 @@
       </c>
     </row>
     <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+      <c r="A164" s="18"/>
       <c r="B164" s="2" t="s">
         <v>187</v>
       </c>
@@ -17946,7 +17944,7 @@
         <v>381.00000000000011</v>
       </c>
       <c r="I164" s="7">
-        <v>79.000000000000014</v>
+        <v>67</v>
       </c>
       <c r="J164" s="6">
         <v>0</v>
@@ -18025,7 +18023,7 @@
       </c>
     </row>
     <row r="165" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+      <c r="A165" s="18"/>
       <c r="B165" s="2" t="s">
         <v>188</v>
       </c>
@@ -18048,7 +18046,7 @@
         <v>412.00000000000011</v>
       </c>
       <c r="I165" s="7">
-        <v>79.000000000000043</v>
+        <v>70</v>
       </c>
       <c r="J165" s="6">
         <v>0</v>
@@ -18127,7 +18125,7 @@
       </c>
     </row>
     <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="2" t="s">
         <v>189</v>
       </c>
@@ -18150,7 +18148,7 @@
         <v>374</v>
       </c>
       <c r="I166" s="7">
-        <v>81.000000000000043</v>
+        <v>67</v>
       </c>
       <c r="J166" s="6">
         <v>2</v>
@@ -18229,7 +18227,7 @@
       </c>
     </row>
     <row r="167" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="2" t="s">
         <v>190</v>
       </c>
@@ -18252,7 +18250,7 @@
         <v>280.00000000000011</v>
       </c>
       <c r="I167" s="7">
-        <v>62.000000000000028</v>
+        <v>48</v>
       </c>
       <c r="J167" s="6">
         <v>0</v>
@@ -18331,7 +18329,7 @@
       </c>
     </row>
     <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="2" t="s">
         <v>191</v>
       </c>
@@ -18354,7 +18352,7 @@
         <v>263</v>
       </c>
       <c r="I168" s="7">
-        <v>55.000000000000007</v>
+        <v>48</v>
       </c>
       <c r="J168" s="6">
         <v>0</v>
@@ -18433,7 +18431,7 @@
       </c>
     </row>
     <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="18" t="s">
         <v>192</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -18458,7 +18456,7 @@
         <v>571.00000000000023</v>
       </c>
       <c r="I169" s="7">
-        <v>123.00000000000006</v>
+        <v>109</v>
       </c>
       <c r="J169" s="6">
         <v>0</v>
@@ -18537,7 +18535,7 @@
       </c>
     </row>
     <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="2" t="s">
         <v>194</v>
       </c>
@@ -18560,7 +18558,7 @@
         <v>386.00000000000006</v>
       </c>
       <c r="I170" s="7">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J170" s="6">
         <v>1</v>
@@ -18639,7 +18637,7 @@
       </c>
     </row>
     <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+      <c r="A171" s="18"/>
       <c r="B171" s="2" t="s">
         <v>195</v>
       </c>
@@ -18662,7 +18660,7 @@
         <v>652.00000000000011</v>
       </c>
       <c r="I171" s="7">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="J171" s="6">
         <v>4</v>
@@ -18741,7 +18739,7 @@
       </c>
     </row>
     <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="2" t="s">
         <v>196</v>
       </c>
@@ -18764,7 +18762,7 @@
         <v>420</v>
       </c>
       <c r="I172" s="7">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J172" s="6">
         <v>0</v>
@@ -18843,7 +18841,7 @@
       </c>
     </row>
     <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+      <c r="A173" s="18"/>
       <c r="B173" s="2" t="s">
         <v>197</v>
       </c>
@@ -18866,7 +18864,7 @@
         <v>854.9999999999992</v>
       </c>
       <c r="I173" s="7">
-        <v>185.00000000000011</v>
+        <v>145</v>
       </c>
       <c r="J173" s="6">
         <v>2</v>
@@ -18945,7 +18943,7 @@
       </c>
     </row>
     <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="2" t="s">
         <v>198</v>
       </c>
@@ -18968,7 +18966,7 @@
         <v>524.99999999999977</v>
       </c>
       <c r="I174" s="7">
-        <v>123.00000000000001</v>
+        <v>102</v>
       </c>
       <c r="J174" s="6">
         <v>0</v>
@@ -19047,7 +19045,7 @@
       </c>
     </row>
     <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
+      <c r="A175" s="18"/>
       <c r="B175" s="2" t="s">
         <v>199</v>
       </c>
@@ -19070,7 +19068,7 @@
         <v>592.00000000000011</v>
       </c>
       <c r="I175" s="7">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="J175" s="6">
         <v>1</v>
@@ -19149,7 +19147,7 @@
       </c>
     </row>
     <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
+      <c r="A176" s="18"/>
       <c r="B176" s="2" t="s">
         <v>200</v>
       </c>
@@ -19172,7 +19170,7 @@
         <v>485</v>
       </c>
       <c r="I176" s="7">
-        <v>113.00000000000003</v>
+        <v>97</v>
       </c>
       <c r="J176" s="6">
         <v>0</v>
@@ -19251,7 +19249,7 @@
       </c>
     </row>
     <row r="177" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="2" t="s">
         <v>201</v>
       </c>
@@ -19274,7 +19272,7 @@
         <v>605.00000000000011</v>
       </c>
       <c r="I177" s="7">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J177" s="6">
         <v>2</v>
@@ -19353,7 +19351,7 @@
       </c>
     </row>
     <row r="178" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
+      <c r="A178" s="18"/>
       <c r="B178" s="2" t="s">
         <v>202</v>
       </c>
@@ -19376,7 +19374,7 @@
         <v>591</v>
       </c>
       <c r="I178" s="7">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J178" s="6">
         <v>0</v>
@@ -19455,7 +19453,7 @@
       </c>
     </row>
     <row r="179" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
+      <c r="A179" s="18"/>
       <c r="B179" s="2" t="s">
         <v>203</v>
       </c>
@@ -19478,7 +19476,7 @@
         <v>649</v>
       </c>
       <c r="I179" s="7">
-        <v>119.00000000000004</v>
+        <v>105</v>
       </c>
       <c r="J179" s="6">
         <v>2</v>
@@ -19557,7 +19555,7 @@
       </c>
     </row>
     <row r="180" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
+      <c r="A180" s="18"/>
       <c r="B180" s="2" t="s">
         <v>204</v>
       </c>
@@ -19580,7 +19578,7 @@
         <v>518.00000000000023</v>
       </c>
       <c r="I180" s="7">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="J180" s="6">
         <v>0</v>
@@ -19659,7 +19657,7 @@
       </c>
     </row>
     <row r="181" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="12"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="2" t="s">
         <v>205</v>
       </c>
@@ -19682,7 +19680,7 @@
         <v>692.99999999999977</v>
       </c>
       <c r="I181" s="7">
-        <v>130.00000000000003</v>
+        <v>111</v>
       </c>
       <c r="J181" s="6">
         <v>1</v>
@@ -19761,7 +19759,7 @@
       </c>
     </row>
     <row r="182" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
+      <c r="A182" s="18"/>
       <c r="B182" s="2" t="s">
         <v>206</v>
       </c>
@@ -19784,7 +19782,7 @@
         <v>337</v>
       </c>
       <c r="I182" s="7">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J182" s="6">
         <v>0</v>
@@ -19863,7 +19861,7 @@
       </c>
     </row>
     <row r="183" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
+      <c r="A183" s="18"/>
       <c r="B183" s="2" t="s">
         <v>207</v>
       </c>
@@ -19886,7 +19884,7 @@
         <v>364.00000000000006</v>
       </c>
       <c r="I183" s="7">
-        <v>64.000000000000028</v>
+        <v>56</v>
       </c>
       <c r="J183" s="6">
         <v>0</v>
@@ -19965,7 +19963,7 @@
       </c>
     </row>
     <row r="184" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="2" t="s">
         <v>208</v>
       </c>
@@ -19988,7 +19986,7 @@
         <v>264</v>
       </c>
       <c r="I184" s="7">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J184" s="6">
         <v>0</v>
@@ -20067,7 +20065,7 @@
       </c>
     </row>
     <row r="185" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
+      <c r="A185" s="18" t="s">
         <v>209</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -20092,7 +20090,7 @@
         <v>726</v>
       </c>
       <c r="I185" s="7">
-        <v>158.00000000000009</v>
+        <v>120</v>
       </c>
       <c r="J185" s="6">
         <v>2</v>
@@ -20171,7 +20169,7 @@
       </c>
     </row>
     <row r="186" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
+      <c r="A186" s="18"/>
       <c r="B186" s="2" t="s">
         <v>211</v>
       </c>
@@ -20194,7 +20192,7 @@
         <v>1155.9999999999998</v>
       </c>
       <c r="I186" s="7">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="J186" s="6">
         <v>0</v>
@@ -20273,7 +20271,7 @@
       </c>
     </row>
     <row r="187" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="12"/>
+      <c r="A187" s="18"/>
       <c r="B187" s="2" t="s">
         <v>212</v>
       </c>
@@ -20296,7 +20294,7 @@
         <v>922</v>
       </c>
       <c r="I187" s="7">
-        <v>199.00000000000017</v>
+        <v>173</v>
       </c>
       <c r="J187" s="6">
         <v>1</v>
@@ -20375,7 +20373,7 @@
       </c>
     </row>
     <row r="188" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
+      <c r="A188" s="18"/>
       <c r="B188" s="2" t="s">
         <v>213</v>
       </c>
@@ -20398,7 +20396,7 @@
         <v>588</v>
       </c>
       <c r="I188" s="7">
-        <v>125.00000000000004</v>
+        <v>85</v>
       </c>
       <c r="J188" s="6">
         <v>0</v>
@@ -20477,7 +20475,7 @@
       </c>
     </row>
     <row r="189" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
+      <c r="A189" s="18"/>
       <c r="B189" s="2" t="s">
         <v>214</v>
       </c>
@@ -20500,7 +20498,7 @@
         <v>490.99999999999994</v>
       </c>
       <c r="I189" s="7">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J189" s="6">
         <v>0</v>
@@ -20579,7 +20577,7 @@
       </c>
     </row>
     <row r="190" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
+      <c r="A190" s="18"/>
       <c r="B190" s="2" t="s">
         <v>215</v>
       </c>
@@ -20602,7 +20600,7 @@
         <v>567</v>
       </c>
       <c r="I190" s="7">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="J190" s="6">
         <v>0</v>
@@ -20681,7 +20679,7 @@
       </c>
     </row>
     <row r="191" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
+      <c r="A191" s="18"/>
       <c r="B191" s="2" t="s">
         <v>216</v>
       </c>
@@ -20704,7 +20702,7 @@
         <v>404.99999999999983</v>
       </c>
       <c r="I191" s="7">
-        <v>83.000000000000043</v>
+        <v>71</v>
       </c>
       <c r="J191" s="6">
         <v>0</v>
@@ -20783,7 +20781,7 @@
       </c>
     </row>
     <row r="192" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
+      <c r="A192" s="18"/>
       <c r="B192" s="2" t="s">
         <v>217</v>
       </c>
@@ -20806,7 +20804,7 @@
         <v>220.00000000000003</v>
       </c>
       <c r="I192" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J192" s="6">
         <v>1</v>
@@ -20885,7 +20883,7 @@
       </c>
     </row>
     <row r="193" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
+      <c r="A193" s="18"/>
       <c r="B193" s="2" t="s">
         <v>218</v>
       </c>
@@ -20908,7 +20906,7 @@
         <v>204</v>
       </c>
       <c r="I193" s="7">
-        <v>44.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="J193" s="6">
         <v>3</v>
@@ -20987,7 +20985,7 @@
       </c>
     </row>
     <row r="194" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="13"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="3" t="s">
         <v>219</v>
       </c>
@@ -21010,7 +21008,7 @@
         <v>419.99999999999989</v>
       </c>
       <c r="I194" s="10">
-        <v>92.000000000000028</v>
+        <v>69</v>
       </c>
       <c r="J194" s="9">
         <v>3</v>
@@ -21091,24 +21089,6 @@
     <row r="195" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="J1:V1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A153:A168"/>
     <mergeCell ref="A169:A184"/>
     <mergeCell ref="A185:A194"/>
     <mergeCell ref="A114:A137"/>
@@ -21120,6 +21100,24 @@
     <mergeCell ref="A50:A71"/>
     <mergeCell ref="A72:A89"/>
     <mergeCell ref="A90:A113"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A153:A168"/>
+    <mergeCell ref="J1:V1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pop_count/data/JOR_ZAA_populationCount.xlsx
+++ b/pop_count/data/JOR_ZAA_populationCount.xlsx
@@ -932,15 +932,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -949,6 +940,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:AH195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,70 +1327,70 @@
     <row r="1" spans="1:34" s="12" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="15" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="19" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1416,8 +1416,8 @@
       <c r="G2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
         <v>242</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -1459,45 +1459,45 @@
       <c r="V2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AH2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2827,7 +2827,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3645,7 +3645,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +3747,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -4359,7 +4359,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
@@ -4461,7 +4461,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4867,7 +4867,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
@@ -4969,7 +4969,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5073,7 +5073,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
@@ -5175,7 +5175,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="AH40" s="8"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
@@ -5479,7 +5479,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
@@ -5683,7 +5683,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
         <v>62</v>
       </c>
@@ -5887,7 +5887,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
@@ -6091,7 +6091,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -6193,7 +6193,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6399,7 +6399,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
@@ -6909,7 +6909,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
@@ -7011,7 +7011,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="2" t="s">
         <v>75</v>
       </c>
@@ -7113,7 +7113,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="2" t="s">
         <v>77</v>
       </c>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>78</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
@@ -7623,7 +7623,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
@@ -7725,7 +7725,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -8031,7 +8031,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
         <v>86</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="AH68" s="8"/>
     </row>
     <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
@@ -8335,7 +8335,7 @@
       </c>
     </row>
     <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="2" t="s">
         <v>88</v>
       </c>
@@ -8437,7 +8437,7 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="2" t="s">
         <v>89</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="AH71" s="8"/>
     </row>
     <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -8639,7 +8639,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
         <v>92</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="AH73" s="8"/>
     </row>
     <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
@@ -8839,7 +8839,7 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
@@ -8941,7 +8941,7 @@
       </c>
     </row>
     <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
         <v>95</v>
       </c>
@@ -9043,7 +9043,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
@@ -9145,7 +9145,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="2" t="s">
         <v>97</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="2" t="s">
         <v>98</v>
       </c>
@@ -9349,7 +9349,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
         <v>99</v>
       </c>
@@ -9451,7 +9451,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>100</v>
       </c>
@@ -9553,7 +9553,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
         <v>101</v>
       </c>
@@ -9655,7 +9655,7 @@
       </c>
     </row>
     <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
@@ -9757,7 +9757,7 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="2" t="s">
         <v>103</v>
       </c>
@@ -9859,7 +9859,7 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
         <v>104</v>
       </c>
@@ -9961,7 +9961,7 @@
       </c>
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
         <v>105</v>
       </c>
@@ -10063,7 +10063,7 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
         <v>106</v>
       </c>
@@ -10165,7 +10165,7 @@
       </c>
     </row>
     <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
         <v>107</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
     </row>
     <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
         <v>108</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -10473,7 +10473,7 @@
       </c>
     </row>
     <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
         <v>111</v>
       </c>
@@ -10575,7 +10575,7 @@
       </c>
     </row>
     <row r="92" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
         <v>112</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
     </row>
     <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
         <v>113</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
     </row>
     <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="2" t="s">
         <v>114</v>
       </c>
@@ -10881,7 +10881,7 @@
       </c>
     </row>
     <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
         <v>115</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
     </row>
     <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
         <v>117</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
     </row>
     <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
         <v>118</v>
       </c>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
         <v>119</v>
       </c>
@@ -11391,7 +11391,7 @@
       </c>
     </row>
     <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="2" t="s">
         <v>120</v>
       </c>
@@ -11493,7 +11493,7 @@
       </c>
     </row>
     <row r="101" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="2" t="s">
         <v>121</v>
       </c>
@@ -11595,7 +11595,7 @@
       </c>
     </row>
     <row r="102" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
         <v>122</v>
       </c>
@@ -11697,7 +11697,7 @@
       </c>
     </row>
     <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="2" t="s">
         <v>123</v>
       </c>
@@ -11799,7 +11799,7 @@
       </c>
     </row>
     <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="2" t="s">
         <v>124</v>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
     </row>
     <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="2" t="s">
         <v>125</v>
       </c>
@@ -12003,7 +12003,7 @@
       </c>
     </row>
     <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="2" t="s">
         <v>126</v>
       </c>
@@ -12105,7 +12105,7 @@
       </c>
     </row>
     <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="2" t="s">
         <v>127</v>
       </c>
@@ -12207,7 +12207,7 @@
       </c>
     </row>
     <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
+      <c r="A108" s="15"/>
       <c r="B108" s="2" t="s">
         <v>128</v>
       </c>
@@ -12309,7 +12309,7 @@
       </c>
     </row>
     <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="2" t="s">
         <v>129</v>
       </c>
@@ -12411,7 +12411,7 @@
       </c>
     </row>
     <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
         <v>130</v>
       </c>
@@ -12513,7 +12513,7 @@
       </c>
     </row>
     <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
+      <c r="A111" s="15"/>
       <c r="B111" s="2" t="s">
         <v>131</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="AH111" s="8"/>
     </row>
     <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="2" t="s">
         <v>132</v>
       </c>
@@ -12715,7 +12715,7 @@
       </c>
     </row>
     <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="2" t="s">
         <v>133</v>
       </c>
@@ -12817,7 +12817,7 @@
       </c>
     </row>
     <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -12921,7 +12921,7 @@
       </c>
     </row>
     <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="2" t="s">
         <v>136</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
     </row>
     <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
+      <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
         <v>137</v>
       </c>
@@ -13125,7 +13125,7 @@
       </c>
     </row>
     <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
+      <c r="A117" s="15"/>
       <c r="B117" s="2" t="s">
         <v>138</v>
       </c>
@@ -13227,7 +13227,7 @@
       </c>
     </row>
     <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="2" t="s">
         <v>139</v>
       </c>
@@ -13329,7 +13329,7 @@
       </c>
     </row>
     <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
+      <c r="A119" s="15"/>
       <c r="B119" s="2" t="s">
         <v>140</v>
       </c>
@@ -13431,7 +13431,7 @@
       </c>
     </row>
     <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="2" t="s">
         <v>141</v>
       </c>
@@ -13533,7 +13533,7 @@
       </c>
     </row>
     <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="2" t="s">
         <v>142</v>
       </c>
@@ -13635,7 +13635,7 @@
       </c>
     </row>
     <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="2" t="s">
         <v>143</v>
       </c>
@@ -13737,7 +13737,7 @@
       </c>
     </row>
     <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
+      <c r="A123" s="15"/>
       <c r="B123" s="2" t="s">
         <v>144</v>
       </c>
@@ -13839,7 +13839,7 @@
       </c>
     </row>
     <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
+      <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
         <v>145</v>
       </c>
@@ -13941,7 +13941,7 @@
       </c>
     </row>
     <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
+      <c r="A125" s="15"/>
       <c r="B125" s="2" t="s">
         <v>146</v>
       </c>
@@ -14043,7 +14043,7 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="2" t="s">
         <v>147</v>
       </c>
@@ -14143,7 +14143,7 @@
       </c>
     </row>
     <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="2" t="s">
         <v>148</v>
       </c>
@@ -14245,7 +14245,7 @@
       </c>
     </row>
     <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
+      <c r="A128" s="15"/>
       <c r="B128" s="2" t="s">
         <v>149</v>
       </c>
@@ -14347,7 +14347,7 @@
       </c>
     </row>
     <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="2" t="s">
         <v>150</v>
       </c>
@@ -14449,7 +14449,7 @@
       </c>
     </row>
     <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="2" t="s">
         <v>151</v>
       </c>
@@ -14551,7 +14551,7 @@
       </c>
     </row>
     <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
+      <c r="A131" s="15"/>
       <c r="B131" s="2" t="s">
         <v>152</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
     </row>
     <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="2" t="s">
         <v>153</v>
       </c>
@@ -14755,7 +14755,7 @@
       </c>
     </row>
     <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="2" t="s">
         <v>154</v>
       </c>
@@ -14857,7 +14857,7 @@
       </c>
     </row>
     <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="2" t="s">
         <v>155</v>
       </c>
@@ -14959,7 +14959,7 @@
       </c>
     </row>
     <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="2" t="s">
         <v>156</v>
       </c>
@@ -15061,7 +15061,7 @@
       </c>
     </row>
     <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="2" t="s">
         <v>157</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
     </row>
     <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="2" t="s">
         <v>158</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
     </row>
     <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -15369,7 +15369,7 @@
       </c>
     </row>
     <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="2" t="s">
         <v>161</v>
       </c>
@@ -15471,7 +15471,7 @@
       </c>
     </row>
     <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="2" t="s">
         <v>162</v>
       </c>
@@ -15573,7 +15573,7 @@
       </c>
     </row>
     <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
+      <c r="A141" s="15"/>
       <c r="B141" s="2" t="s">
         <v>163</v>
       </c>
@@ -15675,7 +15675,7 @@
       </c>
     </row>
     <row r="142" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
+      <c r="A142" s="15"/>
       <c r="B142" s="2" t="s">
         <v>164</v>
       </c>
@@ -15777,7 +15777,7 @@
       </c>
     </row>
     <row r="143" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
+      <c r="A143" s="15"/>
       <c r="B143" s="2" t="s">
         <v>165</v>
       </c>
@@ -15879,7 +15879,7 @@
       </c>
     </row>
     <row r="144" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
+      <c r="A144" s="15"/>
       <c r="B144" s="2" t="s">
         <v>166</v>
       </c>
@@ -15981,7 +15981,7 @@
       </c>
     </row>
     <row r="145" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="2" t="s">
         <v>167</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
     </row>
     <row r="146" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
+      <c r="A146" s="15"/>
       <c r="B146" s="2" t="s">
         <v>168</v>
       </c>
@@ -16185,7 +16185,7 @@
       </c>
     </row>
     <row r="147" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="2" t="s">
         <v>169</v>
       </c>
@@ -16287,7 +16287,7 @@
       </c>
     </row>
     <row r="148" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="2" t="s">
         <v>170</v>
       </c>
@@ -16389,7 +16389,7 @@
       </c>
     </row>
     <row r="149" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
+      <c r="A149" s="15"/>
       <c r="B149" s="2" t="s">
         <v>171</v>
       </c>
@@ -16491,7 +16491,7 @@
       </c>
     </row>
     <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="2" t="s">
         <v>172</v>
       </c>
@@ -16593,7 +16593,7 @@
       </c>
     </row>
     <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
@@ -16695,7 +16695,7 @@
       </c>
     </row>
     <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
+      <c r="A152" s="15"/>
       <c r="B152" s="2" t="s">
         <v>174</v>
       </c>
@@ -16797,7 +16797,7 @@
       </c>
     </row>
     <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -16901,7 +16901,7 @@
       </c>
     </row>
     <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="2" t="s">
         <v>177</v>
       </c>
@@ -17003,7 +17003,7 @@
       </c>
     </row>
     <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="2" t="s">
         <v>178</v>
       </c>
@@ -17105,7 +17105,7 @@
       </c>
     </row>
     <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="2" t="s">
         <v>179</v>
       </c>
@@ -17207,7 +17207,7 @@
       </c>
     </row>
     <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="2" t="s">
         <v>180</v>
       </c>
@@ -17309,7 +17309,7 @@
       </c>
     </row>
     <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
+      <c r="A158" s="15"/>
       <c r="B158" s="2" t="s">
         <v>181</v>
       </c>
@@ -17411,7 +17411,7 @@
       </c>
     </row>
     <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="2" t="s">
         <v>182</v>
       </c>
@@ -17513,7 +17513,7 @@
       </c>
     </row>
     <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="2" t="s">
         <v>183</v>
       </c>
@@ -17615,7 +17615,7 @@
       </c>
     </row>
     <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="2" t="s">
         <v>184</v>
       </c>
@@ -17717,7 +17717,7 @@
       </c>
     </row>
     <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
+      <c r="A162" s="15"/>
       <c r="B162" s="2" t="s">
         <v>185</v>
       </c>
@@ -17819,7 +17819,7 @@
       </c>
     </row>
     <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="2" t="s">
         <v>186</v>
       </c>
@@ -17921,7 +17921,7 @@
       </c>
     </row>
     <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="2" t="s">
         <v>187</v>
       </c>
@@ -18023,7 +18023,7 @@
       </c>
     </row>
     <row r="165" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="18"/>
+      <c r="A165" s="15"/>
       <c r="B165" s="2" t="s">
         <v>188</v>
       </c>
@@ -18125,7 +18125,7 @@
       </c>
     </row>
     <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="18"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="2" t="s">
         <v>189</v>
       </c>
@@ -18227,7 +18227,7 @@
       </c>
     </row>
     <row r="167" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="2" t="s">
         <v>190</v>
       </c>
@@ -18329,7 +18329,7 @@
       </c>
     </row>
     <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
+      <c r="A168" s="15"/>
       <c r="B168" s="2" t="s">
         <v>191</v>
       </c>
@@ -18431,7 +18431,7 @@
       </c>
     </row>
     <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -18535,7 +18535,7 @@
       </c>
     </row>
     <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="18"/>
+      <c r="A170" s="15"/>
       <c r="B170" s="2" t="s">
         <v>194</v>
       </c>
@@ -18637,7 +18637,7 @@
       </c>
     </row>
     <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="18"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="2" t="s">
         <v>195</v>
       </c>
@@ -18739,7 +18739,7 @@
       </c>
     </row>
     <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
+      <c r="A172" s="15"/>
       <c r="B172" s="2" t="s">
         <v>196</v>
       </c>
@@ -18841,7 +18841,7 @@
       </c>
     </row>
     <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
+      <c r="A173" s="15"/>
       <c r="B173" s="2" t="s">
         <v>197</v>
       </c>
@@ -18943,7 +18943,7 @@
       </c>
     </row>
     <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="2" t="s">
         <v>198</v>
       </c>
@@ -19045,7 +19045,7 @@
       </c>
     </row>
     <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="18"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="2" t="s">
         <v>199</v>
       </c>
@@ -19147,7 +19147,7 @@
       </c>
     </row>
     <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
+      <c r="A176" s="15"/>
       <c r="B176" s="2" t="s">
         <v>200</v>
       </c>
@@ -19249,7 +19249,7 @@
       </c>
     </row>
     <row r="177" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="2" t="s">
         <v>201</v>
       </c>
@@ -19351,7 +19351,7 @@
       </c>
     </row>
     <row r="178" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="18"/>
+      <c r="A178" s="15"/>
       <c r="B178" s="2" t="s">
         <v>202</v>
       </c>
@@ -19453,7 +19453,7 @@
       </c>
     </row>
     <row r="179" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
+      <c r="A179" s="15"/>
       <c r="B179" s="2" t="s">
         <v>203</v>
       </c>
@@ -19555,7 +19555,7 @@
       </c>
     </row>
     <row r="180" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
+      <c r="A180" s="15"/>
       <c r="B180" s="2" t="s">
         <v>204</v>
       </c>
@@ -19657,7 +19657,7 @@
       </c>
     </row>
     <row r="181" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
+      <c r="A181" s="15"/>
       <c r="B181" s="2" t="s">
         <v>205</v>
       </c>
@@ -19759,7 +19759,7 @@
       </c>
     </row>
     <row r="182" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="18"/>
+      <c r="A182" s="15"/>
       <c r="B182" s="2" t="s">
         <v>206</v>
       </c>
@@ -19861,7 +19861,7 @@
       </c>
     </row>
     <row r="183" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
+      <c r="A183" s="15"/>
       <c r="B183" s="2" t="s">
         <v>207</v>
       </c>
@@ -19963,7 +19963,7 @@
       </c>
     </row>
     <row r="184" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
+      <c r="A184" s="15"/>
       <c r="B184" s="2" t="s">
         <v>208</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
     </row>
     <row r="185" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18" t="s">
+      <c r="A185" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -20169,7 +20169,7 @@
       </c>
     </row>
     <row r="186" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="18"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="2" t="s">
         <v>211</v>
       </c>
@@ -20271,7 +20271,7 @@
       </c>
     </row>
     <row r="187" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="18"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="2" t="s">
         <v>212</v>
       </c>
@@ -20373,7 +20373,7 @@
       </c>
     </row>
     <row r="188" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="18"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="2" t="s">
         <v>213</v>
       </c>
@@ -20475,7 +20475,7 @@
       </c>
     </row>
     <row r="189" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="18"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="2" t="s">
         <v>214</v>
       </c>
@@ -20577,7 +20577,7 @@
       </c>
     </row>
     <row r="190" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="2" t="s">
         <v>215</v>
       </c>
@@ -20679,7 +20679,7 @@
       </c>
     </row>
     <row r="191" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="18"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="2" t="s">
         <v>216</v>
       </c>
@@ -20781,7 +20781,7 @@
       </c>
     </row>
     <row r="192" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
+      <c r="A192" s="15"/>
       <c r="B192" s="2" t="s">
         <v>217</v>
       </c>
@@ -20883,7 +20883,7 @@
       </c>
     </row>
     <row r="193" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="18"/>
+      <c r="A193" s="15"/>
       <c r="B193" s="2" t="s">
         <v>218</v>
       </c>
@@ -20985,7 +20985,7 @@
       </c>
     </row>
     <row r="194" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="19"/>
+      <c r="A194" s="16"/>
       <c r="B194" s="3" t="s">
         <v>219</v>
       </c>
@@ -21089,6 +21089,24 @@
     <row r="195" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="J1:V1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A153:A168"/>
     <mergeCell ref="A169:A184"/>
     <mergeCell ref="A185:A194"/>
     <mergeCell ref="A114:A137"/>
@@ -21100,24 +21118,6 @@
     <mergeCell ref="A50:A71"/>
     <mergeCell ref="A72:A89"/>
     <mergeCell ref="A90:A113"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A153:A168"/>
-    <mergeCell ref="J1:V1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pop_count/data/JOR_ZAA_populationCount.xlsx
+++ b/pop_count/data/JOR_ZAA_populationCount.xlsx
@@ -932,6 +932,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -940,15 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:AH195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,70 +1327,70 @@
     <row r="1" spans="1:34" s="12" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="19" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="15" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1416,8 +1416,8 @@
       <c r="G2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>242</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -1459,45 +1459,45 @@
       <c r="V2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2827,7 +2827,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3645,7 +3645,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +3747,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -4359,7 +4359,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
@@ -4461,7 +4461,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4867,7 +4867,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
@@ -4969,7 +4969,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5073,7 +5073,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
@@ -5175,7 +5175,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="AH40" s="8"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
@@ -5479,7 +5479,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
@@ -5683,7 +5683,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2" t="s">
         <v>62</v>
       </c>
@@ -5887,7 +5887,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
@@ -6091,7 +6091,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -6193,7 +6193,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6399,7 +6399,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
@@ -6909,7 +6909,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
@@ -7011,7 +7011,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="2" t="s">
         <v>75</v>
       </c>
@@ -7113,7 +7113,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="2" t="s">
         <v>77</v>
       </c>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2" t="s">
         <v>78</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
@@ -7623,7 +7623,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
@@ -7725,7 +7725,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -8031,7 +8031,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="2" t="s">
         <v>86</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="AH68" s="8"/>
     </row>
     <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
@@ -8335,7 +8335,7 @@
       </c>
     </row>
     <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="2" t="s">
         <v>88</v>
       </c>
@@ -8437,7 +8437,7 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="2" t="s">
         <v>89</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="AH71" s="8"/>
     </row>
     <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -8639,7 +8639,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2" t="s">
         <v>92</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="AH73" s="8"/>
     </row>
     <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
@@ -8839,7 +8839,7 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
@@ -8941,7 +8941,7 @@
       </c>
     </row>
     <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="2" t="s">
         <v>95</v>
       </c>
@@ -9043,7 +9043,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
@@ -9145,7 +9145,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="2" t="s">
         <v>97</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="2" t="s">
         <v>98</v>
       </c>
@@ -9349,7 +9349,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="2" t="s">
         <v>99</v>
       </c>
@@ -9451,7 +9451,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2" t="s">
         <v>100</v>
       </c>
@@ -9553,7 +9553,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="2" t="s">
         <v>101</v>
       </c>
@@ -9655,7 +9655,7 @@
       </c>
     </row>
     <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
@@ -9757,7 +9757,7 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="2" t="s">
         <v>103</v>
       </c>
@@ -9859,7 +9859,7 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="2" t="s">
         <v>104</v>
       </c>
@@ -9961,7 +9961,7 @@
       </c>
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="2" t="s">
         <v>105</v>
       </c>
@@ -10063,7 +10063,7 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="2" t="s">
         <v>106</v>
       </c>
@@ -10165,7 +10165,7 @@
       </c>
     </row>
     <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="2" t="s">
         <v>107</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
     </row>
     <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="2" t="s">
         <v>108</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -10473,7 +10473,7 @@
       </c>
     </row>
     <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="2" t="s">
         <v>111</v>
       </c>
@@ -10575,7 +10575,7 @@
       </c>
     </row>
     <row r="92" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="2" t="s">
         <v>112</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
     </row>
     <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="2" t="s">
         <v>113</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
     </row>
     <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="2" t="s">
         <v>114</v>
       </c>
@@ -10881,7 +10881,7 @@
       </c>
     </row>
     <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="2" t="s">
         <v>115</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
     </row>
     <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="2" t="s">
         <v>117</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
     </row>
     <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="2" t="s">
         <v>118</v>
       </c>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="2" t="s">
         <v>119</v>
       </c>
@@ -11391,7 +11391,7 @@
       </c>
     </row>
     <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="2" t="s">
         <v>120</v>
       </c>
@@ -11493,7 +11493,7 @@
       </c>
     </row>
     <row r="101" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="2" t="s">
         <v>121</v>
       </c>
@@ -11595,7 +11595,7 @@
       </c>
     </row>
     <row r="102" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="2" t="s">
         <v>122</v>
       </c>
@@ -11697,7 +11697,7 @@
       </c>
     </row>
     <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="2" t="s">
         <v>123</v>
       </c>
@@ -11799,7 +11799,7 @@
       </c>
     </row>
     <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="2" t="s">
         <v>124</v>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
     </row>
     <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="2" t="s">
         <v>125</v>
       </c>
@@ -12003,7 +12003,7 @@
       </c>
     </row>
     <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="2" t="s">
         <v>126</v>
       </c>
@@ -12105,7 +12105,7 @@
       </c>
     </row>
     <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="2" t="s">
         <v>127</v>
       </c>
@@ -12207,7 +12207,7 @@
       </c>
     </row>
     <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="2" t="s">
         <v>128</v>
       </c>
@@ -12309,7 +12309,7 @@
       </c>
     </row>
     <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="2" t="s">
         <v>129</v>
       </c>
@@ -12411,7 +12411,7 @@
       </c>
     </row>
     <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="2" t="s">
         <v>130</v>
       </c>
@@ -12513,7 +12513,7 @@
       </c>
     </row>
     <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="2" t="s">
         <v>131</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="AH111" s="8"/>
     </row>
     <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="2" t="s">
         <v>132</v>
       </c>
@@ -12715,7 +12715,7 @@
       </c>
     </row>
     <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="2" t="s">
         <v>133</v>
       </c>
@@ -12817,7 +12817,7 @@
       </c>
     </row>
     <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -12921,7 +12921,7 @@
       </c>
     </row>
     <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="2" t="s">
         <v>136</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
     </row>
     <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="2" t="s">
         <v>137</v>
       </c>
@@ -13125,7 +13125,7 @@
       </c>
     </row>
     <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="2" t="s">
         <v>138</v>
       </c>
@@ -13227,7 +13227,7 @@
       </c>
     </row>
     <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="2" t="s">
         <v>139</v>
       </c>
@@ -13329,7 +13329,7 @@
       </c>
     </row>
     <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="2" t="s">
         <v>140</v>
       </c>
@@ -13431,7 +13431,7 @@
       </c>
     </row>
     <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="2" t="s">
         <v>141</v>
       </c>
@@ -13533,7 +13533,7 @@
       </c>
     </row>
     <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="2" t="s">
         <v>142</v>
       </c>
@@ -13635,7 +13635,7 @@
       </c>
     </row>
     <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="2" t="s">
         <v>143</v>
       </c>
@@ -13737,7 +13737,7 @@
       </c>
     </row>
     <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="2" t="s">
         <v>144</v>
       </c>
@@ -13839,7 +13839,7 @@
       </c>
     </row>
     <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="2" t="s">
         <v>145</v>
       </c>
@@ -13941,7 +13941,7 @@
       </c>
     </row>
     <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="2" t="s">
         <v>146</v>
       </c>
@@ -14043,7 +14043,7 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="2" t="s">
         <v>147</v>
       </c>
@@ -14143,7 +14143,7 @@
       </c>
     </row>
     <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="2" t="s">
         <v>148</v>
       </c>
@@ -14245,7 +14245,7 @@
       </c>
     </row>
     <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="2" t="s">
         <v>149</v>
       </c>
@@ -14347,7 +14347,7 @@
       </c>
     </row>
     <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
+      <c r="A129" s="18"/>
       <c r="B129" s="2" t="s">
         <v>150</v>
       </c>
@@ -14449,7 +14449,7 @@
       </c>
     </row>
     <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="2" t="s">
         <v>151</v>
       </c>
@@ -14551,7 +14551,7 @@
       </c>
     </row>
     <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="2" t="s">
         <v>152</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
     </row>
     <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="2" t="s">
         <v>153</v>
       </c>
@@ -14755,7 +14755,7 @@
       </c>
     </row>
     <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="2" t="s">
         <v>154</v>
       </c>
@@ -14857,7 +14857,7 @@
       </c>
     </row>
     <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="2" t="s">
         <v>155</v>
       </c>
@@ -14959,7 +14959,7 @@
       </c>
     </row>
     <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="2" t="s">
         <v>156</v>
       </c>
@@ -15061,7 +15061,7 @@
       </c>
     </row>
     <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="2" t="s">
         <v>157</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
     </row>
     <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
+      <c r="A137" s="18"/>
       <c r="B137" s="2" t="s">
         <v>158</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
     </row>
     <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -15369,7 +15369,7 @@
       </c>
     </row>
     <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
+      <c r="A139" s="18"/>
       <c r="B139" s="2" t="s">
         <v>161</v>
       </c>
@@ -15471,7 +15471,7 @@
       </c>
     </row>
     <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
+      <c r="A140" s="18"/>
       <c r="B140" s="2" t="s">
         <v>162</v>
       </c>
@@ -15573,7 +15573,7 @@
       </c>
     </row>
     <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="2" t="s">
         <v>163</v>
       </c>
@@ -15675,7 +15675,7 @@
       </c>
     </row>
     <row r="142" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="2" t="s">
         <v>164</v>
       </c>
@@ -15777,7 +15777,7 @@
       </c>
     </row>
     <row r="143" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="2" t="s">
         <v>165</v>
       </c>
@@ -15879,7 +15879,7 @@
       </c>
     </row>
     <row r="144" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
+      <c r="A144" s="18"/>
       <c r="B144" s="2" t="s">
         <v>166</v>
       </c>
@@ -15981,7 +15981,7 @@
       </c>
     </row>
     <row r="145" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
+      <c r="A145" s="18"/>
       <c r="B145" s="2" t="s">
         <v>167</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
     </row>
     <row r="146" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="2" t="s">
         <v>168</v>
       </c>
@@ -16185,7 +16185,7 @@
       </c>
     </row>
     <row r="147" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
+      <c r="A147" s="18"/>
       <c r="B147" s="2" t="s">
         <v>169</v>
       </c>
@@ -16287,7 +16287,7 @@
       </c>
     </row>
     <row r="148" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
+      <c r="A148" s="18"/>
       <c r="B148" s="2" t="s">
         <v>170</v>
       </c>
@@ -16389,7 +16389,7 @@
       </c>
     </row>
     <row r="149" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
+      <c r="A149" s="18"/>
       <c r="B149" s="2" t="s">
         <v>171</v>
       </c>
@@ -16491,7 +16491,7 @@
       </c>
     </row>
     <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="2" t="s">
         <v>172</v>
       </c>
@@ -16593,7 +16593,7 @@
       </c>
     </row>
     <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
+      <c r="A151" s="18"/>
       <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
@@ -16695,7 +16695,7 @@
       </c>
     </row>
     <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
+      <c r="A152" s="18"/>
       <c r="B152" s="2" t="s">
         <v>174</v>
       </c>
@@ -16797,7 +16797,7 @@
       </c>
     </row>
     <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -16901,7 +16901,7 @@
       </c>
     </row>
     <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="2" t="s">
         <v>177</v>
       </c>
@@ -17003,7 +17003,7 @@
       </c>
     </row>
     <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="2" t="s">
         <v>178</v>
       </c>
@@ -17105,7 +17105,7 @@
       </c>
     </row>
     <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="2" t="s">
         <v>179</v>
       </c>
@@ -17207,7 +17207,7 @@
       </c>
     </row>
     <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
+      <c r="A157" s="18"/>
       <c r="B157" s="2" t="s">
         <v>180</v>
       </c>
@@ -17309,7 +17309,7 @@
       </c>
     </row>
     <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="2" t="s">
         <v>181</v>
       </c>
@@ -17411,7 +17411,7 @@
       </c>
     </row>
     <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="2" t="s">
         <v>182</v>
       </c>
@@ -17513,7 +17513,7 @@
       </c>
     </row>
     <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
+      <c r="A160" s="18"/>
       <c r="B160" s="2" t="s">
         <v>183</v>
       </c>
@@ -17615,7 +17615,7 @@
       </c>
     </row>
     <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
+      <c r="A161" s="18"/>
       <c r="B161" s="2" t="s">
         <v>184</v>
       </c>
@@ -17717,7 +17717,7 @@
       </c>
     </row>
     <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="2" t="s">
         <v>185</v>
       </c>
@@ -17819,7 +17819,7 @@
       </c>
     </row>
     <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
+      <c r="A163" s="18"/>
       <c r="B163" s="2" t="s">
         <v>186</v>
       </c>
@@ -17921,7 +17921,7 @@
       </c>
     </row>
     <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="18"/>
       <c r="B164" s="2" t="s">
         <v>187</v>
       </c>
@@ -18023,7 +18023,7 @@
       </c>
     </row>
     <row r="165" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
+      <c r="A165" s="18"/>
       <c r="B165" s="2" t="s">
         <v>188</v>
       </c>
@@ -18125,7 +18125,7 @@
       </c>
     </row>
     <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="2" t="s">
         <v>189</v>
       </c>
@@ -18227,7 +18227,7 @@
       </c>
     </row>
     <row r="167" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="2" t="s">
         <v>190</v>
       </c>
@@ -18329,7 +18329,7 @@
       </c>
     </row>
     <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="2" t="s">
         <v>191</v>
       </c>
@@ -18431,7 +18431,7 @@
       </c>
     </row>
     <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="18" t="s">
         <v>192</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -18535,7 +18535,7 @@
       </c>
     </row>
     <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="2" t="s">
         <v>194</v>
       </c>
@@ -18637,7 +18637,7 @@
       </c>
     </row>
     <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
+      <c r="A171" s="18"/>
       <c r="B171" s="2" t="s">
         <v>195</v>
       </c>
@@ -18739,7 +18739,7 @@
       </c>
     </row>
     <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="2" t="s">
         <v>196</v>
       </c>
@@ -18841,7 +18841,7 @@
       </c>
     </row>
     <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
+      <c r="A173" s="18"/>
       <c r="B173" s="2" t="s">
         <v>197</v>
       </c>
@@ -18943,7 +18943,7 @@
       </c>
     </row>
     <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="2" t="s">
         <v>198</v>
       </c>
@@ -19045,7 +19045,7 @@
       </c>
     </row>
     <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
+      <c r="A175" s="18"/>
       <c r="B175" s="2" t="s">
         <v>199</v>
       </c>
@@ -19147,7 +19147,7 @@
       </c>
     </row>
     <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
+      <c r="A176" s="18"/>
       <c r="B176" s="2" t="s">
         <v>200</v>
       </c>
@@ -19249,7 +19249,7 @@
       </c>
     </row>
     <row r="177" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="2" t="s">
         <v>201</v>
       </c>
@@ -19351,7 +19351,7 @@
       </c>
     </row>
     <row r="178" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
+      <c r="A178" s="18"/>
       <c r="B178" s="2" t="s">
         <v>202</v>
       </c>
@@ -19453,7 +19453,7 @@
       </c>
     </row>
     <row r="179" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
+      <c r="A179" s="18"/>
       <c r="B179" s="2" t="s">
         <v>203</v>
       </c>
@@ -19555,7 +19555,7 @@
       </c>
     </row>
     <row r="180" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
+      <c r="A180" s="18"/>
       <c r="B180" s="2" t="s">
         <v>204</v>
       </c>
@@ -19657,7 +19657,7 @@
       </c>
     </row>
     <row r="181" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="2" t="s">
         <v>205</v>
       </c>
@@ -19759,7 +19759,7 @@
       </c>
     </row>
     <row r="182" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
+      <c r="A182" s="18"/>
       <c r="B182" s="2" t="s">
         <v>206</v>
       </c>
@@ -19861,7 +19861,7 @@
       </c>
     </row>
     <row r="183" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
+      <c r="A183" s="18"/>
       <c r="B183" s="2" t="s">
         <v>207</v>
       </c>
@@ -19963,7 +19963,7 @@
       </c>
     </row>
     <row r="184" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="2" t="s">
         <v>208</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
     </row>
     <row r="185" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="18" t="s">
         <v>209</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -20169,7 +20169,7 @@
       </c>
     </row>
     <row r="186" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
+      <c r="A186" s="18"/>
       <c r="B186" s="2" t="s">
         <v>211</v>
       </c>
@@ -20271,7 +20271,7 @@
       </c>
     </row>
     <row r="187" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
+      <c r="A187" s="18"/>
       <c r="B187" s="2" t="s">
         <v>212</v>
       </c>
@@ -20373,7 +20373,7 @@
       </c>
     </row>
     <row r="188" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
+      <c r="A188" s="18"/>
       <c r="B188" s="2" t="s">
         <v>213</v>
       </c>
@@ -20475,7 +20475,7 @@
       </c>
     </row>
     <row r="189" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
+      <c r="A189" s="18"/>
       <c r="B189" s="2" t="s">
         <v>214</v>
       </c>
@@ -20577,7 +20577,7 @@
       </c>
     </row>
     <row r="190" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
+      <c r="A190" s="18"/>
       <c r="B190" s="2" t="s">
         <v>215</v>
       </c>
@@ -20679,7 +20679,7 @@
       </c>
     </row>
     <row r="191" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
+      <c r="A191" s="18"/>
       <c r="B191" s="2" t="s">
         <v>216</v>
       </c>
@@ -20781,7 +20781,7 @@
       </c>
     </row>
     <row r="192" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
+      <c r="A192" s="18"/>
       <c r="B192" s="2" t="s">
         <v>217</v>
       </c>
@@ -20883,7 +20883,7 @@
       </c>
     </row>
     <row r="193" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
+      <c r="A193" s="18"/>
       <c r="B193" s="2" t="s">
         <v>218</v>
       </c>
@@ -20985,7 +20985,7 @@
       </c>
     </row>
     <row r="194" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="16"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="3" t="s">
         <v>219</v>
       </c>
@@ -21089,24 +21089,6 @@
     <row r="195" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="J1:V1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A153:A168"/>
     <mergeCell ref="A169:A184"/>
     <mergeCell ref="A185:A194"/>
     <mergeCell ref="A114:A137"/>
@@ -21118,6 +21100,24 @@
     <mergeCell ref="A50:A71"/>
     <mergeCell ref="A72:A89"/>
     <mergeCell ref="A90:A113"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A153:A168"/>
+    <mergeCell ref="J1:V1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
